--- a/Java/JSQLIs/JSQLIs.xlsx
+++ b/Java/JSQLIs/JSQLIs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="420">
   <si>
     <t>ID</t>
   </si>
@@ -144,9 +144,6 @@
     <t>+42,-9</t>
   </si>
   <si>
-    <t>+0,-0</t>
-  </si>
-  <si>
     <t>1fce990ce9098afe96e75ec1583c771826c50637, 4c5b16d7409bbd947af3e0dadf4b1901b48e4cd7</t>
   </si>
   <si>
@@ -202,12 +199,6 @@
   </si>
   <si>
     <t>1e7c2c8738ea9f0ca7abf71de1c64dbed051018c</t>
-  </si>
-  <si>
-    <t>1c542181e93a4ff6e2b29272237beda1583732f9, 522fe28e3d8da3d8c094d668071368fdc738e74b</t>
-  </si>
-  <si>
-    <t>8bda5cedb750912afec65940a53f4ba4ed31ec17</t>
   </si>
   <si>
     <t>https://github.com/aosp-mirror/platform_frameworks_base/commit/522fe28e3d8da3d8c094d668071368fdc738e74b</t>
@@ -895,10 +886,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/aosp-mirror/platform_frameworks_base/commit/8bda5cedb750912afec65940a53f4ba4ed31ec17</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/aosp-mirror/platform_frameworks_base/commit/192a39044290be84a1086a876a9d4ab0571ab97b</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -919,10 +906,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/CyanogenMod/android_frameworks_base/commit/4c5b16d7409bbd947af3e0dadf4b1901b48e4cd7</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/CyanogenMod/android_frameworks_base/commit/66aa87ae0355a4e6c8ed56704fec4fb225ed18f6</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1024,6 +1007,316 @@
   </si>
   <si>
     <t>commit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5cdcfb6fdc40ca11f03eaee4ce51e57eb6b9b5fbb281d76cf49ac440fa7bff0a:packages/WAPPushManager/tests/src/com/android/smspush/unitTests/WapPushTest.java</t>
+  </si>
+  <si>
+    <t>cb3d28d91e7d4b81642a3940f98e48e3fb08dc16cbc6858b80bdbe9c5d6728c3:packages/WAPPushManager/src/com/android/smspush/WapPushManager.java;f5b1aaa716556682447d3c7180137e7e956815310badc45e4e656e6df207245a:packages/WAPPushManager/tests/src/com/android/smspush/unitTests/WapPushTest.java</t>
+  </si>
+  <si>
+    <t>f5b1aaa716556682447d3c7180137e7e956815310badc45e4e656e6df207245a:packages/WAPPushManager/tests/src/com/android/smspush/unitTests/WapPushTest.java</t>
+  </si>
+  <si>
+    <t>cb3d28d91e7d4b81642a3940f98e48e3fb08dc16cbc6858b80bdbe9c5d6728c3:packages/WAPPushManager/src/com/android/smspush/WapPushManager.java;5cdcfb6fdc40ca11f03eaee4ce51e57eb6b9b5fbb281d76cf49ac440fa7bff0a:packages/WAPPushManager/tests/src/com/android/smspush/unitTests/WapPushTest.java</t>
+  </si>
+  <si>
+    <t>58e6038790a90e8847fa7be71ab6c0fb12bd3fe38ca4b053a63a7a079fff43b1:gobblin-metastore/src/main/java/gobblin/metastore/DatabaseJobHistoryStore.java;5495e0e1a4b319a68b9630cc6d1a7d2a27feb964bc9af87bd58e154ed727c4ce:gobblin-metastore/src/main/java/gobblin/metastore/database/DatabaseJobHistoryStoreV100.java;4e425369931db05e9d1f8a4960d6e12cf77fe784823e5d107e6b5cc299f5eb2b:gobblin-metastore/src/main/java/gobblin/metastore/database/DatabaseJobHistoryStoreV101.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:gobblin-metastore/src/main/java/gobblin/metastore/database/Filter.java</t>
+  </si>
+  <si>
+    <t>a9d6e4f5f9a7378ddafa39d08f484baf6bb6549b7c1287f82130d801a3ea9188:axelor-account/src/main/java/com/axelor/apps/account/exception/IExceptionMessage.java;c44b534f0cb6313d7391f0650bf667e611c7dec02211d864265fcbbf1778e037:axelor-account/src/main/java/com/axelor/apps/account/module/AccountModule.java;ec48c393f61da0e54c4d7c77f410e5e5e51af0a98788dda8949dba1c144448ac:axelor-account/src/main/java/com/axelor/apps/account/service/AccountClearanceService.java;8117a2678af6e8feb5d23d77f3488395e7c5c8ee28817023cb80140e6f340caa:axelor-account/src/main/java/com/axelor/apps/account/service/AnalyticMoveLineService.java;56c610e324f88095d45046cf4c55e80f02b0002842c2fea1ef686f9642a840ed:axelor-account/src/main/java/com/axelor/apps/account/service/BankStatementService.java;974fb8de5865246a4928dcb69c559c9ffd1751547c3c87f22d43f8a2e13b4232:axelor-account/src/main/java/com/axelor/apps/account/service/ChequeRejectionService.java;1c86333884ecac9467f0131bec2698c1b3758194f4fc12c43c60bc6f6977f7d5:axelor-account/src/main/java/com/axelor/apps/account/service/InterbankPaymentOrderRejectImportService.java;963316ded3ac6388ff52ed46447ff4c69f5949967c1d766b9d7ef6dcbc479f29:axelor-account/src/main/java/com/axelor/apps/account/service/InvoicePaymentServiceImpl.java;1080846c043746c034a7e3f4eb47fd6573b976d80459cb682112ab9f2ead733f:axelor-account/src/main/java/com/axelor/apps/account/service/IrrecoverableService.java;c5330b33a4ecd416ec721c64cbb8e99ce029625842b65b9abbe95ccd08a46179:axelor-account/src/main/java/com/axelor/apps/account/service/MoveLineExportService.java;8babc728a01dac66df5e47fb3f7f138ea0676692f0dabb1b726a9c09d554aa1f:axelor-account/src/main/java/com/axelor/apps/account/service/MoveLineReportServiceImpl.java;187a014d698fbd0101d38f7196f7d36cc76163b28437e08f8ca4e80b84ea3e19:axelor-account/src/main/java/com/axelor/apps/account/service/PaymentScheduleExportService.java;618dec148b7f0f6865dc557bb057b82c43fc72f5f687c65d574643a316836bc8:axelor-account/src/main/java/com/axelor/apps/account/service/PaymentScheduleImportService.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:axelor-account/src/main/java/com/axelor/apps/account/service/ReconcileSequenceService.java;2288a310186d2619749d991857bd7ad09ce43e3be51388079787ba24ff82d38b:axelor-account/src/main/java/com/axelor/apps/account/service/ReconcileService.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:axelor-account/src/main/java/com/axelor/apps/account/service/ReconcileServiceImpl.java;0056cda518bbe3e1ade148548899b8996d74ca04270ea0834caf7f1d8add5c5a:axelor-account/src/main/java/com/axelor/apps/account/service/ReimbursementExportService.java;df4ec89be28ce29973078cb1f36502394041923dcf5bf47e1eaf8d7e90684709:axelor-account/src/main/java/com/axelor/apps/account/service/ReimbursementImportService.java;78319c531388628a9b6b2978f95b5fbb9d16ba3c2943b5692d894cfc35de6d3c:axelor-account/src/main/java/com/axelor/apps/account/service/YearService.java;48b6ee2baebc9747c8d8700f71a5af67323231870aef57e348f1f16bc9bb5117:axelor-account/src/main/java/com/axelor/apps/account/service/config/AccountConfigService.java;9cddcab4336c50d64b2511627b39b14e7d04077785780062813f63dbd72959b2:axelor-account/src/main/java/com/axelor/apps/account/service/debtrecovery/DoubtfulCustomerService.java;e2fc1ae89773b7b7a83e59929ef0d91f9ae9d6dbec6e5bf0da134ab9f05ef5dd:axelor-account/src/main/java/com/axelor/apps/account/service/invoice/generator/InvoiceLineGenerator.java;d99193dd4e543027462f8fcaf1d6bfb1193efeac6dd05dee2c396c18cea72773:axelor-account/src/main/java/com/axelor/apps/account/service/move/MoveAdjustementService.java;090028148177ba1eb91f4253de7d6ed1d24813b4ab063a8665ad7a6d4aae3ee5:axelor-account/src/main/java/com/axelor/apps/account/service/move/MoveCreateService.java;2acf5948bb3f80e01ba9d3397ee38611d86251db38096323ff48e9407fdde457:axelor-account/src/main/java/com/axelor/apps/account/service/move/MoveLineService.java;b084b948b2d7f995e88d08e68c166c370665eb5eac063facc19c88e4905ce583:axelor-account/src/main/java/com/axelor/apps/account/service/move/MoveService.java;97dfbb803a93b100a756b6b1c0c42974155e92ad8906cc821675c650c41b4989:axelor-account/src/main/java/com/axelor/apps/account/service/move/MoveTemplateService.java;d114e6a4ffd04f818e95372b91fcdede0be59277dcc2a247025957b96ea547f3:axelor-account/src/main/java/com/axelor/apps/account/service/move/MoveValidateService.java;3af37a231b19bc365bd52c8ec8e23b22c45568ce1204572b0b29214ae90643b4:axelor-account/src/main/java/com/axelor/apps/account/service/payment/paymentvoucher/PaymentVoucherConfirmService.java;f9c928833e4bf53a636e4d02b67f08e0b0555bdd7f2a0b76744b13e8bd918728:axelor-account/src/main/java/com/axelor/apps/account/web/InvoiceLineController.java;e5e076ed6b9d24c26dbcfa57939167cf6dae08e54080d311368be3ae540511ac:axelor-account/src/main/java/com/axelor/apps/account/web/MoveLineReportController.java;c530896b22feb1ed56cbc9abadcfd5302a28b43254d7f413864b135660acb5ff:axelor-account/src/main/resources/data-init/input/base_sequence.csv;cb4dcfc533abd0f18a19e20dd3043f4d6596b8f1c2315b4d9179df095882c99f:axelor-account/src/main/resources/domains/AccountConfig.xml;f15cb82f7cf12bd7f6d0003e8a490df1de256752c7f23d7f55f6bbdef5c387c4:axelor-account/src/main/resources/domains/InvoiceLine.xml;581f90bd0da4ae0af9e2ff81fd6ee0fda3addd34893f9f772df71bae8667a92d:axelor-account/src/main/resources/domains/Move.xml;575767211d32ab37ba60870bd36ff751c24458d3c7b470d896f37bd1548c4da4:axelor-account/src/main/resources/domains/MoveLine.xml;7e0ad875e3da60e45bfa5bea04af1c21cc8a3afcb9a81e5f776f24c235fd182e:axelor-account/src/main/resources/domains/MoveLineReport.xml;111e74cccb4f0ab750fa433779fe56efec83243b5a5b5389487c36698f47ecb2:axelor-account/src/main/resources/domains/Reconcile.xml;71fe5573745385d698a9b69c9109a22cc58257d404a52418a69e8d388ea263aa:axelor-account/src/main/resources/domains/Year.xml;e5987eabb0aac8495582731ffe004f02ba79bb8e8b767901fd82fe9bb7a740cb:axelor-account/src/main/resources/i18n/messages.csv;a306fb0246233705c6948367f410fd1d593ea21afba8b22bbde9bd644a2d1645:axelor-account/src/main/resources/i18n/messages_en.csv;7acdf70d22d1d8c8640f950dcb5c9784a5d10ed5810931388c267473f2b5908f:axelor-account/src/main/resources/i18n/messages_fr.csv;27a6f42b29e6609a78ba0c02dc32d86ad9e9c6fedd7c5fae3b2dc9dc6413d90e:axelor-account/src/main/resources/views/AccountConfig.xml;ac6f6ed87d1021c1ee89820270535a014632ef21d4f472ad7adc8cdf5d93c831:axelor-account/src/main/resources/views/Menu.xml;60dad03c38cda54d4b934d9eaa57672851989f7b1f1305ae49bddd6bad6f0f2b:axelor-account/src/main/resources/views/Move.xml;df4d0076db24f7e3a976ee7835a5ecc38e99a3d562b11d03ac54d0dd74ee4ebb:axelor-account/src/main/resources/views/MoveLine.xml;b7f101b725ae4dcf98c38d0822dd1fe840a106b9cc02db18459512c2145a01b3:axelor-account/src/main/resources/views/MoveLineReport.xml;119862de44b63f47ab562180134927f7e81526642a7e262895f6b79c85447d47:axelor-account/src/main/resources/views/Reconcile.xml;fd56b8f91f13c8f0cfaba47e1cb4c4090e4ae81a23845165da618311ae5206b0:axelor-account/src/main/resources/views/Selects.xml;cf4cba46124b438759b099c6a8f3c6d31551dbc86ced2d948bb5574cffbaa5f6:axelor-account/src/main/resources/views/Year.xml;ed65bbad7598975c3208a89e128fd0206455f821aab78313d271122cf3ac1f85:axelor-base/src/main/java/com/axelor/apps/base/db/IAdministration.java;342ba59ec52c38572c2e8dc22d0170801182120dc6d0332523a3edf54629e232:axelor-base/src/main/java/com/axelor/apps/base/exceptions/IExceptionMessage.java;ab9aea21a786aa4f07a45e62eaf76dea36b747d5c8dbfb9fa29d335c48a07a77:axelor-base/src/main/java/com/axelor/apps/base/service/PartnerService.java;6d4159504f3f7c43b0da866d13dca2ae5d99e3fd17ef31005c752323801e0a52:axelor-base/src/main/resources/domains/Period.xml;8f3fb1898f6efca8aaaf32ec8e828d5e7e230e6b36fb7c580fd0ef4e798c15a1:axelor-base/src/main/resources/i18n/messages.csv;2e21d6c6f6f4edde282e9fa3d7f1a1e66e6fc585c0d3d785dfb675804964f3bc:axelor-base/src/main/resources/i18n/messages_en.csv;229950c4e3d25a1a3926ef4fa7686cfffefd33e5a199bbb18f7aec47ab6a7988:axelor-base/src/main/resources/i18n/messages_fr.csv;fc8b2cea253f5ccea1eac88a72878a646cf9c560f21ee936fb86019d43530134:axelor-base/src/main/resources/views/Period.xml;33bfe02ccb7836b94c90dd6c63c8344a1f51823a9d912cabcd7d98bc852e8628:axelor-base/src/main/resources/views/Selects.xml;cafe8c7b961e795948e74b88d61297be78a4c5b380ed363133dd2fab58155207:axelor-business-project/src/main/java/com/axelor/apps/businessproject/service/ElementsToInvoiceService.java;78f29e62a3d469ad3da4bf97b1fe8eba60a3dd79e9926bb62e1118167551d9ac:axelor-business-project/src/main/java/com/axelor/apps/businessproject/service/InvoicingProjectService.java;01c1ff915e4be08d541e2ecf21cffbfda6ae5c3ad24f7fec884d78be12ed5baf:axelor-business-project/src/main/java/com/axelor/apps/businessproject/service/PurchaseOrderInvoiceProjectServiceImpl.java;2ca6af6e8910ecc306cc7e5b4e143c03fc20e99de36f40a6a13e89cc8ba69110:axelor-demo-en/src/main/resources/data-demo/input/base_sequence.csv;7dab3a5283466c35741add0c36bb403dcbc82ad9907b2ba48ffc70b3c8e88074:axelor-demo-fr/src/main/resources/data-demo/input/base_sequence.csv;2eeef7b71b3abc6d6613dbc143c9f1d2e8f82b434566fc47baea83250d1ce3d1:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/expense/ExpenseService.java;501962451941042270bc0ad0603ece203abfb37458f42553ffb4c3bc10278260:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/timesheet/TimesheetServiceImpl.java;c922e41ed569f6ce5f47a2e4debada5d9049c95e1db23a618ca9c666aa44c879:axelor-human-resource/src/main/java/com/axelor/apps/hr/web/timesheet/TimesheetController.java;f870b7e449d86f6a0f990e845bc009cb8f1161755b09cf0afb5504f9d26783eb:axelor-human-resource/src/main/resources/domains/Expense.xml;1357d4843645b9d82e50feb9acf92eaa0ee09c59546c6186227ddcd9be0f133b:axelor-human-resource/src/main/resources/domains/ExtraHours.xml;ed020264b0304b3440d21700746b52f6748d1219b0981da1c7363db8f3dcd3a3:axelor-human-resource/src/main/resources/domains/LeaveRequest.xml;e13580cb4df9bafac2d333578f1e8f1adaf1bf88ea2e9bcaff7d7f82d685276c:axelor-human-resource/src/main/resources/i18n/messages.csv;cdc35266db2cc0824ca79b24a15a4c498b5877413975d9b7834081bc9314a471:axelor-human-resource/src/main/resources/i18n/messages_en.csv;5d886ab560261a3234e134e513714a3f37b3f3b2a144370ebde8cd5de39c781b:axelor-human-resource/src/main/resources/i18n/messages_fr.csv;151b3be6b4cb08645a30d780af31cc5e6492c6ad3a436f15a138170d670d5868:axelor-human-resource/src/main/resources/views/Expense.xml;57234c71300da244ee63c2e58f8fbde9b2ec2ddaa982458eabe8af90e12f9aa7:axelor-human-resource/src/main/resources/views/ExtraHours.xml;19ad36c5ad9e290e300336b1283604ed1e1e913d7f30d14f2881128c723771f4:axelor-human-resource/src/main/resources/views/LeaveRequest.xml;8770efc2c92e906c858c9058df2953972abe7b2e25906f0aa3f39577fb9dceac:axelor-human-resource/src/main/resources/views/Timesheet.xml;c8156b19e4ea4b36cb4786796305fa762c86ce81d46debdf0b84f95e711492cf:axelor-supplychain/src/main/java/com/axelor/apps/supplychain/service/AdvancePaymentServiceSupplychainImpl.java;2d72518b22790b0c41b3a6877007df0b3f09af488d32742dcae417bb1824d581:axelor-supplychain/src/main/java/com/axelor/apps/supplychain/service/PurchaseOrderInvoiceServiceImpl.java;62ab5cede6b86498aa4db1e6cc0ad2a5535f669ab555db9e9ae2021af85416f7:axelor-supplychain/src/main/java/com/axelor/apps/supplychain/service/SaleOrderInvoiceServiceImpl.java;3c8b641fba8e7b8778c493d9fb6de7de9e14e102c4ceeb199754841b09938ff7:axelor-supplychain/src/main/java/com/axelor/apps/supplychain/service/StockMoveInvoiceServiceImpl.java;14689c1abf7890d4db453a234ded1b09fa0cb80eee4cb99bd0a82d47ac1a2787:axelor-supplychain/src/main/java/com/axelor/apps/supplychain/service/TimetableService.java;9b1dd317477398274c8824fa81550ba1f847d9e67ecfc8f36a4c3b7fc7ec4790:axelor-supplychain/src/main/java/com/axelor/apps/supplychain/service/invoice/generator/InvoiceLineGeneratorSupplyChain.java</t>
+  </si>
+  <si>
+    <t>7f886a5a863832a0d64fb226090fc2a22e2ae4d814322d68b2f239a930e01ae8:axelor-account/src/main/java/com/axelor/apps/account/exception/IExceptionMessage.java;c44b534f0cb6313d7391f0650bf667e611c7dec02211d864265fcbbf1778e037:axelor-account/src/main/java/com/axelor/apps/account/module/AccountModule.java;8117a2678af6e8feb5d23d77f3488395e7c5c8ee28817023cb80140e6f340caa:axelor-account/src/main/java/com/axelor/apps/account/service/AnalyticMoveLineService.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:axelor-account/src/main/java/com/axelor/apps/account/service/ReconcileSequenceService.java;2288a310186d2619749d991857bd7ad09ce43e3be51388079787ba24ff82d38b:axelor-account/src/main/java/com/axelor/apps/account/service/ReconcileService.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:axelor-account/src/main/java/com/axelor/apps/account/service/ReconcileServiceImpl.java;0056cda518bbe3e1ade148548899b8996d74ca04270ea0834caf7f1d8add5c5a:axelor-account/src/main/java/com/axelor/apps/account/service/ReimbursementExportService.java</t>
+  </si>
+  <si>
+    <t>1312bf0928e2651c86793d413c52cfd717834c53901fc0b4cb136ee3541a434c:src/main/resources/org/jraf/androidcontentprovidergenerator/abstractselection.ftl</t>
+  </si>
+  <si>
+    <t>1c3149560e995b7cb8774bb4ac511065cf8004230ae2de74648dd07e0d1a5636:engine/src/main/resources/org/camunda/bpm/engine/impl/mapping/entity/Authorization.xml;cc929a86ead9540812aaf28e342195706bb24a21ab9024ad53261a8770f3758f:engine/src/test/java/org/camunda/bpm/engine/test/api/identity/AuthorizationServiceTest.java</t>
+  </si>
+  <si>
+    <t>d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugins/maven/src/main/java/org/jetbrains/idea/maven/plugins/sql/MavenSqlInjector.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugins/maven/src/main/java/org/jetbrains/idea/maven/utils/MavenPluginConfigurationLanguageInjector.java;f3f1d97078f2ef34f81cf614f4d83133f9f1bcc600c27158e8b4b26d4215f3d5:plugins/maven/src/main/resources/META-INF/plugin.xml;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugins/maven/src/test/java/org/jetbrains/idea/maven/plugins/sql/MavenSqlInjectionTest.groovy</t>
+  </si>
+  <si>
+    <t>55849552b4e46161f68dc47f51d8a1c8e4f077993d61bb5f8c059c856dc8b2f4:plugins/groovy/src/org/jetbrains/plugins/groovy/lang/psi/patterns/GroovyElementPattern.java;b0a30941dc1b8b788b8ae1ab054a01d687e199aa4456d0932a7ac9c4ccc6b6cd:plugins/groovy/src/org/jetbrains/plugins/groovy/lang/psi/patterns/GroovyExpressionPattern.java;49f8307293301a27f42e440bc24ffbbf172b5f5b779a179ac1ad71ed06e1e054:plugins/groovy/src/org/jetbrains/plugins/groovy/lang/psi/patterns/GroovyMethodCallPattern.java</t>
+  </si>
+  <si>
+    <t>b7aeca48769a7afae78d0071b0f98cf0662f34b0dfed33dbccee6529af01da0b:api/system-current.txt;38f026d22ab42318141e972a572d5ef885d34d637f5a34c05da275702fe61ea1:api/test-current.txt;0784bbf4cf482e77b9fb0762b81f854c95cb7b99990a86b4f5a107c7d91e3f6e:core/java/android/database/sqlite/SQLiteDatabase.java;4ec7a6a6db180a1dff871a6d866b40bec8fef112c385e7a8d7959fd966fe1e6c:core/java/android/database/sqlite/SQLiteQueryBuilder.java</t>
+  </si>
+  <si>
+    <t>d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:.gitignore;dab8a50c40804649ea96f5879ef0a0978a1d3136c9e18b396055ab4f5bfce19a:build.xml;50d44ecb59e62a3516164a62f61560ff91ca445df482723654b2b2228f573078:build/built-jar.properties;a424190e4b9e356c987d8114794780be172c554ba878270344ff4db1135f344c:build/classes/burp/BurpExtender.class;1e1d4c81c4ce7dbcfcaff40b34d14d64cc17f5d0f06dba3894ecabc3cd60a3d8:build/classes/burp/MenuItemListener.class;574f375d3000e8e4ca25bd98f959d8c2ff6584e65c87b1fd3de6ec63dad3a939:build/classes/burp/SQL_Menu.class;a528815fa3368b110cdbee2f1d8a6e9e6c967c90bd733786d36e26b4fee0d228:dist/Hack_Bar.jar;9a93d7187d18f29ca040b582f5c17e313128aa2533ede68307c35acb20719150:dist/README.TXT;3db88a67181670fd9a179919e09e6287f9a61b2f017ca4fe65eb9ab0facd92e5:nbproject/build-impl.xml;5a7c81e708e4d607298b3a4b3ad4545fb8c2f435c1b12ab35aabf3b7987909b9:nbproject/genfiles.properties;e496c2232411bea9affd4fade276d4cd814d73c6e6e8d97e30025b2335b6a3b7:nbproject/private/private.xml;ee5ce74b804d7448173f2ba4922bc762b03b2fecfc524fa7e0cb33590995a024:nbproject/project.properties;807b2021edb8906874d05805c9f2a85f6c78f4c67d9125675940d7b154a8fd8b:nbproject/project.xml;34a05476798ba74961c73b725966b3aa4b228d0521358edffad83df3995998a5:src/burp/BurpExtender.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/burp/Decoder_Encoder_Menu.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/burp/LFI_Menu.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/burp/RCE_Menu.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/burp/Reverse_Shell_Menu.java;717ff51787c527d951d9994e638df29efdb694e4c5b1a35fc6cbdec56a822bf6:src/burp/SQL_Menu.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/burp/WebShell_Menu.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/burp/XXE_Menu.java</t>
+  </si>
+  <si>
+    <t>d4058d2b4c78e5cf100986454eba8e8e0aab4141b708f4d878f919734a4062cf:web/app/controllers/api/v1/AdvSearch.java;0eee2c6f4d20e91950aa56ae430b66970e71886db4da499cdda1475e9d25c9f4:web/app/dao/DatasetsDAO.java;003e1fc1180d8a862063a1216b580239fe4ca92e0031dfae39c9e136c832d13a:web/app/dao/MetricsDAO.java;eb22403b0b791b43611b59a19238938a0a2c56393d9cf6d25c80e535fde7f284:web/app/views/main.scala.html;16a4e334b40736b96a144d99b70854d362d30879e469a069ad22729dcb820d6f:web/public/javascripts/search.js</t>
+  </si>
+  <si>
+    <t>003e1fc1180d8a862063a1216b580239fe4ca92e0031dfae39c9e136c832d13a:web/app/dao/MetricsDAO.java</t>
+  </si>
+  <si>
+    <t>1a387f59f98e445623d4c32e19def54fe9f6b72c7b7f22ab193c22fbaba7669d:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/SqlInjectionDetector.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/resources/injection-sinks/sql-scala-slick.txt;dba36836c1a440684ce3d7a5a9cf82dd875e0e8b411b901a9dc818631a768dc0:plugin/src/main/resources/metadata/findbugs.xml;656548e12db4c76e19ca31fd2228a6fb1f014a6db1d42d511de549c65ab1a046:plugin/src/main/resources/metadata/messages.xml;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/scala/ScalaSqlInjectionSlickDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/resources/bytecode_samples/scala_sql_injection.jar</t>
+  </si>
+  <si>
+    <t>d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/ComponentCallbacks.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/ComponentCallbacks2.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/ContentProvider.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/ContentResolver.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/ContentValues.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/OperationApplicationException.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/UriMatcher.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/res/Configuration.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/CharArrayBuffer.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/Cursor.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/DatabaseErrorHandler.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/DatabaseUtils.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/SQLException.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteClosable.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteCursorDriver.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteDatabase.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteException.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteOpenHelper.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteProgram.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteQuery.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteQueryBuilder.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteStatement.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteTransactionListener.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/net/Uri.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/os/CancellationSignal.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/os/IBinder.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/os/Parcel.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/os/ParcelFileDescriptor.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/os/Parcelable.java;25190a9cd041813ddb47e89169f59384f62b325f54f0cb7acf65126f979e421c:plugin-deps/src/main/java/android/util/Log.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/util/Pair.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/AndroidSqlInjectionDetector.java;ef0cf65e595f8884693c47a8257e801b488cf2f034934643e3317c3c76373448:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintDataflowEngine.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/resources/injection-sinks/sql-android.txt;6bf24ca8df9a233ca7f44bb6cab21518618bd5198c3b04e18d69e5d2d94d7d3f:plugin/src/main/resources/metadata/findbugs.xml;f60882f1cb91b23a02a2ba1cf1945d86bd17d832fcc32735038a2099ffa0ce0c:plugin/src/main/resources/metadata/messages.xml;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/resources/taint-config/android-taint-sql.txt;76a9fb51a83126c07e1a5a90374d5875b72c93ed6ddcb9a958e2af61e7ee6d62:plugin/src/test/java/com/h3xstream/findsecbugs/injection/SinkFilesValidationTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/AndroidInjectionSourceTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/taintanalysis/BaseConfigValidation.java;13303f9fbf1095ec19c4a1cda9535beed1cdbebc0dc456673168dd82d9d3f6f5:plugin/src/test/java/com/h3xstream/findsecbugs/taintanalysis/TaintConfigValidationTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/sqli/android/AndroidContentProviderUsage.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/sqli/android/AndroidSql.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/sqli/android/LocalProvider.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/sqli/android/NullContentProvider.java</t>
+  </si>
+  <si>
+    <t>2d13fd59b0fbe3a9d68a0a9bd331bf5c2782b2acf5a616755a51722266dda0a3:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/SqlInjectionDetector.java;eb26e49f196434d81306ca039cb172fdb73047e3a9206e282880de2269ac5c15:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintClassConfig.java;ced991d38899d5c7cb9050f47898b6341ff8fc374c5c2fe9b3cdb2dfc54f101e:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintFrameModelingVisitor.java;c7944ee3325dbdbaf257c59f5638a4c1829972ce6fc6c6a53e5f71f13264f970:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintMethodConfig.java;7e07823dd6483ce56b495322d1eb06629f8122cce09d9b64a3de18dcc747d3ee:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintMethodConfigWithArgumentsAndLocation.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/resources/injection-sinks/sql-scala-anorm.txt;a84184f341a80fb9b9bc5f3b05db7a48b6e3b9917087785d21752368a54b63d4:plugin/src/main/resources/metadata/findbugs.xml;d235ded6098795d2480ae13146dd523262f3f39527ec3c4f4cc83b7adb42fcea:plugin/src/main/resources/metadata/messages.xml;eb75cae47014d81f7e742e0e7640b3ca4c9d72ecb43dd411b2116ba7760f9841:plugin/src/main/resources/taint-config/scala.txt;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/scala/ScalaSqlInjectionAnormDetectorTest.java;6b8271cd9e65efc4ef73c78740f5abbddf906ca4fe9e47772de0268595bd86bc:plugin/src/test/resources/bytecode_samples/scala_sql_injection.jar</t>
+  </si>
+  <si>
+    <t>58f31fb6e988e2603750a071258ef4acd0b294fc0a0ef2f621c2cddee3803068:findbugs-test-util/src/test/java/com/h3xstream/findbugs/test/BaseDetectorTest.java;abd42f3106408bcd8ceca8323b3e2dd8b8d986aefe34ae0d42bdcfadcc4132bf:findbugs-test-util/src/test/java/com/h3xstream/findbugs/test/EasyBugReporter.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/javax/servlet/http/HttpServletResponseWrapper.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/torque/util/BasePeer.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/turbine/om/peer/BasePeer.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/turbine/om/security/peer/GroupPeer.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/turbine/util/db/Criteria.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/turbine/util/db/pool/DBConnection.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/xml/security/utils/JDKXPathAPI.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/xml/security/utils/XPathAPI.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/xml/security/utils/XalanXPathAPI.java;4496fb1b07ca4163a02dc8108256c044b8511ee396efad94cac6643e075df361:plugin/src/main/java/com/h3xstream/findsecbugs/injection/BasicInjectionDetector.java;2a28fada554b72e0811ef1118be642bd8893f67a063b4995bf6e7b5420ac81a7:plugin/src/main/java/com/h3xstream/findsecbugs/injection/SinksLoader.java;1a387f59f98e445623d4c32e19def54fe9f6b72c7b7f22ab193c22fbaba7669d:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/SqlInjectionDetector.java;7d4c92a4dbec747be02ee4a2b732d467bcb1e12ddc5354ec06ffd5c72f86163a:plugin/src/main/java/com/h3xstream/findsecbugs/jsp/JstlOutDetector.java;b6f0ffc15e68577d762a0b3831d4184890883eb68fc8f0d4ac36d6733721ed3d:plugin/src/main/java/com/h3xstream/findsecbugs/password/IntuitiveHardcodePasswordDetector.java;a0c9da2b623af4d39961d33ad64bfcae172d1d7b9d0a69adcf7a2742129979c2:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintFrameModelingVisitor.java;09ef944a389b4de1d313ab9d5df2883357e70bcbd86fcfda4d0f3ed06f4760f4:plugin/src/main/resources/injection-sinks/sql-spring.txt;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/resources/injection-sinks/sql-turbine.txt;19580e7b92fba1aac9279606723c4fc4aede5ee1a018bc1c6db6b730243d47ce:plugin/src/main/resources/metadata/findbugs.xml;0b299b1a39176c2e7a061e68da5cba0fcbce05eafa6c01f695321890ab594112:plugin/src/main/resources/metadata/messages.xml;28381728784cbd6a36162c5a3598ae73926e839c447adb2e0390eb16d51f08b8:plugin/src/test/java/com/h3xstream/findsecbugs/HttpResponseSplittingDetectorTest.java;2e23de9a275aac7070c9a56e1234841da02b198136995fb35cf350a27489a560:plugin/src/test/java/com/h3xstream/findsecbugs/injection/SinkFilesValidationTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/TorqueSqlDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/TurbineSqlDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/xpath/XPathApacheXmlSecTest.java;1fbe6dcb0c69b13e23944e9af3080995d5d6cb977f044392a28cd0450f8879ee:plugin/src/test/java/testcode/ResponseSplittingServlet.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/sqli/TorqueSql.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/sqli/TurbineSql.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/xpath/XPathApacheXmlSec.java</t>
+  </si>
+  <si>
+    <t>d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/turbine/om/peer/BasePeer.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/turbine/om/security/peer/GroupPeer.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/turbine/util/db/Criteria.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/turbine/util/db/pool/DBConnection.java;4496fb1b07ca4163a02dc8108256c044b8511ee396efad94cac6643e075df361:plugin/src/main/java/com/h3xstream/findsecbugs/injection/BasicInjectionDetector.java;1a387f59f98e445623d4c32e19def54fe9f6b72c7b7f22ab193c22fbaba7669d:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/SqlInjectionDetector.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/resources/injection-sinks/sql-turbine.txt;28e2dfbb7a8c0ae0953622654e89259cdaaf20f31da382a5b89a15e2682367d3:plugin/src/main/resources/metadata/findbugs.xml;98d348d6f7bddc14b386d7716e8f062f73d0614168c0312137e74a0ca5aba561:plugin/src/main/resources/metadata/messages.xml;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/TurbineSqlDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/sqli/TurbineSql.java</t>
+  </si>
+  <si>
+    <t>1f8abcfaf3c8e295025b66c64bd683af39d21f4914bef0194bdf2db478e3ba6c:pom.xml;b77bc690711e150e06f9bcdfbe6ec4775a1070a25075d93e2d13639e112c8985:src/main/java/com/h3xstream/findsecbugs/sql/HibernateInjectionDetector.java;ed6cc9f1231c4f00ea8778948b75006e091e46a668120064a80f9034501d39d2:src/main/java/com/h3xstream/findsecbugs/sql/JdoInjectionDetector.java;64b631805a92f8bf24a7791212ae7d360f31120061a2c79d1d0ef0a0f552435b:src/main/java/com/h3xstream/findsecbugs/sql/JpaInjectionDetector.java;535080df93572f3ba1af2d24d4c90ace3629951dd2c5628fea646db66cc859b2:src/main/java/com/h3xstream/findsecbugs/sql/SqlInjectionDetector.java;463b16e47f455b1d71e5d3e06e3683fc2c1f824be79d99c22c5c077491d4c26f:src/test/java/com/h3xstream/findsecbugs/CommandInjectionDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/test/java/com/h3xstream/findsecbugs/sql/JdoInjectionDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/test/java/com/h3xstream/findsecbugs/sql/JpaInjectionDetectorTest.java;b29208848fcec8fc2ce8e0e4112c8524807d2fb11785f9328457fdb798c055b4:src/test/java/testcode/sqli/HibernateSql.java;7790fa6807f40f0ab5f6395d0f1399f805c93e7f39edd229b3aa14cb709907a3:src/test/java/testcode/sqli/JdoSql.java;8ad25161f63e05ade4f1c52fe9717e1ab34068aa8c4b537c0d2e0abca11fdc63:src/test/java/testcode/sqli/JpaSql.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/test/java/testcode/sqli/UserEntity.java</t>
+  </si>
+  <si>
+    <t>a2aa61f4c9f5f46e10626a5860c053667a6c5d7ef1afafcd416f699dc5c298ea:findbugs-test-util/pom.xml;cd2a24d9f3fd278333cf46d96a04665afe906d64190407ce849c70bfb462c07f:findbugs-test-util/src/test/java/com/h3xstream/findbugs/test/BaseDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/ComponentCallbacks.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/ComponentCallbacks2.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/ContentProvider.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/ContentResolver.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/ContentValues.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/OperationApplicationException.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/UriMatcher.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/res/Configuration.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/CharArrayBuffer.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/Cursor.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/DatabaseErrorHandler.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/DatabaseUtils.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/SQLException.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteClosable.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteCursorDriver.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteDatabase.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteException.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteOpenHelper.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteProgram.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteQuery.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteQueryBuilder.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteStatement.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/database/sqlite/SQLiteTransactionListener.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/net/Uri.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/os/CancellationSignal.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/os/IBinder.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/os/Parcel.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/os/ParcelFileDescriptor.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/os/Parcelable.java;25190a9cd041813ddb47e89169f59384f62b325f54f0cb7acf65126f979e421c:plugin-deps/src/main/java/android/util/Log.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/util/Pair.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/com/opensymphony/xwork2/ognl/OgnlReflectionProvider.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/com/opensymphony/xwork2/ognl/OgnlUtil.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/com/opensymphony/xwork2/util/OgnlTextParser.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/com/opensymphony/xwork2/util/TextParseUtil.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/com/opensymphony/xwork2/util/TextParser.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/com/opensymphony/xwork2/util/ValueStack.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/com/opensymphony/xwork2/util/reflection/ReflectionProvider.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/ognl/ClassResolver.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/ognl/OgnlException.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/ognl/TypeConverter.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/struts2/util/StrutsUtil.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/struts2/util/VelocityStrutsUtil.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/struts2/views/jsp/ui/OgnlTool.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/apache/velocity/app/VelocityEngine.java;29dcab48cc70325817b1c5582f4a750e8274260c953a607f66f0630e76095481:plugin-deps/src/main/java/org/owasp/esapi/Encoder.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/owasp/esapi/codecs/Codec.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/org/owasp/esapi/codecs/WindowsCodec.java;994a9c83acbb8ed1be453e937c4b65777946a5dc14d9fec28a7a2d48a8d33977:plugin/pom.xml;3a7b85cdf51ee02b4d89c577b8048309b4ce0a465de2390ec20fbb744536a902:plugin/src/main/java/com/h3xstream/findsecbugs/HttpResponseSplittingDetector.java;c506c55adf0384b5efe5bb399d86e273708b615a713d35b703a23d0c35194bb3:plugin/src/main/java/com/h3xstream/findsecbugs/injection/AbstractInjectionDetector.java;d648fb09df9c99eae1c19dbd5dce1ba85568d4f22f5415a581f6cfbde000ce09:plugin/src/main/java/com/h3xstream/findsecbugs/injection/InjectionSink.java;af200028b8682784ac26bae01369e3a5cadfd3d7a5acd706f707a57c6a6b8e34:plugin/src/main/java/com/h3xstream/findsecbugs/injection/SinksLoader.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/java/com/h3xstream/findsecbugs/injection/crlf/CrlfLogInjectionDetector.java;f13038acb4be819a3d1ee6c6331a289a32aa45578dbacd71e8733f45433f7210:plugin/src/main/java/com/h3xstream/findsecbugs/injection/http/HttpParameterPollutionDetector.java;09132bd87a1cef3a92d6d1c1cde8d228183b9afc7ea5891bd50b754132ab08f2:plugin/src/main/java/com/h3xstream/findsecbugs/injection/redirect/RedirectionSource.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/java/com/h3xstream/findsecbugs/injection/script/OgnlInjectionDetector.java;e3d6542eab990bad3fb8e0ede6575523895ab3038dc207fc6500deb652808790:plugin/src/main/java/com/h3xstream/findsecbugs/injection/script/ScriptInjectionDetector.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/AndroidSqlInjectionDetector.java;928c3f56be402fab86106f7a0a129f3c8154ad8709f912eae6692c3fecb0d8b8:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/Taint.java;ef0cf65e595f8884693c47a8257e801b488cf2f034934643e3317c3c76373448:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintDataflowEngine.java;73fd081cbbecedbcf127dc6c0125b0e0b58eb921f582871119eb689e1d45d043:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintFrameModelingVisitor.java;11cc2816ca497fda36c56aa3fa760d9dc38661c01c9637e9b78b9da9ce5e7662:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintLocation.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/resources/injection-sinks/sql-android.txt;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/resources/injection-sinks/struts2.txt;a8cd3e7d37437a7dd22ba06037cc5a5588fcb2f6afb2d780ebc1dbda8710a9d9:plugin/src/main/resources/metadata/findbugs.xml;10afccb5b2bf800faa412755a86f61e5ab0e02cf176e1013b5da092480342fac:plugin/src/main/resources/metadata/messages.xml;0b5940174ee273c79195a329a65b9fec57a804eb9535c6f738d63c6d89adf5fe:plugin/src/main/resources/safe-encoders/other.txt;2c05b57356c5319f170c1fa3966700657a59398a64792672e1b8b4d9e9afb69e:plugin/src/main/resources/safe-encoders/owasp.txt;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/resources/taint-config/android-taint-sql.txt;79fe965a9441ab259ca2fea06bd5f2c33f427adda5aa2d35f546f43b6f89a20b:plugin/src/main/resources/taint-config/portlet.txt;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/resources/taint-config/struts2-taint.txt;76a9fb51a83126c07e1a5a90374d5875b72c93ed6ddcb9a958e2af61e7ee6d62:plugin/src/test/java/com/h3xstream/findsecbugs/injection/SinkFilesValidationTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/injection/crlf/CrlfLogInjectionDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/injection/script/OgnlInjectionDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/AndroidInjectionSourceTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/SqlMethodUnknownSourceTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/taintanalysis/BaseConfigValidation.java;13303f9fbf1095ec19c4a1cda9535beed1cdbebc0dc456673168dd82d9d3f6f5:plugin/src/test/java/com/h3xstream/findsecbugs/taintanalysis/TaintConfigValidationTest.java;1bb69c9499819cccb674cfa6d3255d4906de8440a8e2701ee37a21392c95107c:plugin/src/test/java/com/h3xstream/findsecbugs/taintanalysis/TaintFrameTest.java;c9768d34f87cdab09d097a9ddde630d25ce3e8ece2a40dfaab956f8ad21dac5b:plugin/src/test/java/testcode/command/CommandInjectionSafe.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/script/ognl/OgnlReflectionProviderSample.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/script/ognl/OgnlUtilSample.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/script/ognl/TextParserSample.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/sqli/android/AndroidContentProviderUsage.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/sqli/android/AndroidSql.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/sqli/android/LocalProvider.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/sqli/android/NullContentProvider.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/sqli/source/MethodUnknownSource.java;73d276e88faf07949eee7b3e7f2270de2672ffaa20e1e00927502b095dfd6e0c:plugin/src/test/java/testcode/taint/UnsafeTaintedByAnnotationEndpoint.java;ccaf044ef1df0b53d5eaa2bd2e57d618105393e1f80763efab865d2eab6bdd6c:pom.xml</t>
+  </si>
+  <si>
+    <t>eb26e49f196434d81306ca039cb172fdb73047e3a9206e282880de2269ac5c15:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintClassConfig.java;f11ef46b35f4795a56cf58abf81cc16151fd6e0056ca80c260f7daf0cacf0efa:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintFrameModelingVisitor.java;c7944ee3325dbdbaf257c59f5638a4c1829972ce6fc6c6a53e5f71f13264f970:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintMethodConfig.java;7e07823dd6483ce56b495322d1eb06629f8122cce09d9b64a3de18dcc747d3ee:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintMethodConfigWithArgumentsAndLocation.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/resources/injection-sinks/sql-scala-anorm.txt;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/resources/injection-sinks/sql-scala-slick.txt;e2c82f9bc619fb918e2cb4d5854ae4422e177d2c7db1c992708619eb76590af7:plugin/src/main/resources/metadata/findbugs.xml;2d289a2c56568b16e41d688f4687d2532bbce5ece1eeb3097308d391f2d48cb7:plugin/src/main/resources/metadata/messages.xml;3398188b1fcf28392bf5c6a613ca75fe3776262929874d1e29554beb8af5a9e3:plugin/src/main/resources/taint-config/scala.txt;f5d615355dace51bd646b8d74f6d6e6e10925d4b56d8ee3770a9d4d8e34a9265:plugin/src/test/java/com/h3xstream/findsecbugs/injection/SinkFilesValidationTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/scala/ScalaSqlInjectionAnormDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/scala/ScalaSqlInjectionSlickDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/resources/bytecode_samples/scala_sql_injection.jar</t>
+  </si>
+  <si>
+    <t>622061b4dac0d825b54f9e48d07d10a70ee3e741cb8888278e271b629ac30c81:plugin/src/main/java/com/h3xstream/findsecbugs/injection/InjectionDetector.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/java/com/h3xstream/findsecbugs/injection/InjectionPoint.java;532dc5059d9299169868424e5f34333b533e02a0d01a25f32d814b35e96da6af:plugin/src/main/java/com/h3xstream/findsecbugs/injection/InjectionSource.java;72833e1c0b6d8ca3c9e06cdf1d21227b26b238b1696c2de5b0701c0345d56ac3:plugin/src/main/java/com/h3xstream/findsecbugs/injection/ldap/JndiLdapInjectionSource.java;f54fe06cc1f0acd054fc6e9a2e9e9b89d37a8f660c35c04da503d3bcb02fb4fd:plugin/src/main/java/com/h3xstream/findsecbugs/injection/ldap/LdapInjectionDetector.java;86659915ef7b71b5e00297cbc33648d4dca1cac6d8044ba1220f08a7d3f82dd0:plugin/src/main/java/com/h3xstream/findsecbugs/injection/ldap/UnboundIdLdapInjectionSource.java;d4f6d75b28f58dd4bf40b7622eacce83d4f57dd62fddb8c06708e3dbe067addf:plugin/src/main/java/com/h3xstream/findsecbugs/injection/redirect/RedirectionSource.java;43a1abbe33bc6570660c815eb096caf035d5f7d7bf604046ec7722577d18ab17:plugin/src/main/java/com/h3xstream/findsecbugs/injection/redirect/UnvalidatedRedirectDetector.java;1bdc2fa4b3a71ea8abe2435396ca67d01fdd5747ae3f79d4de4fcfc6db26eeb3:plugin/src/main/java/com/h3xstream/findsecbugs/injection/script/ScriptEngineSource.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/java/com/h3xstream/findsecbugs/injection/script/ScriptInjectionDetector.java;67a7e7d9c8f7c139af182b07cf8ca7e93c4be6d89575cfb94a31e843f107b737:plugin/src/main/java/com/h3xstream/findsecbugs/injection/script/SpelSource.java;15a00d802ec6c366ed54b368ff8631b87e6eed822d4171abef5b85b519548637:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/HibernateInjectionSource.java;d260283f0d8f6560162d38e84101f526cf42613ae3e34ec016ff7c95354abc00:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/JdoInjectionSource.java;99a61f8e3cecf277591214fe578f4e5a329a239d41e6bb4f25281fdf23214fc0:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/JpaInjectionSource.java;39c0ce1cc0593b91ea54ba7fc04072bec0a13fdc2c6902c284d8545ff1963db1:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/SqlInjectionDetector.java;05094f1526f1d1a1c767475aae44d7950a32a1a8f532947a9ea16fc36decd21a:plugin/src/main/resources/metadata/findbugs.xml;ff8bc463151802eae9c6926387e0282dc6b3298fce55db4e9ca4bdf9de626467:plugin/src/main/resources/metadata/messages.xml;a2cec36476e7d84d29a2a9d10ff3d1d0d82a234a4780ce4478b8d8983df5256f:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/HibernateInjectionSourceTest.java;dd50fbb6da8e1a15b59c158b067eb789a2e97bc1d977c96d39031d80e2a1fe8a:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/JdoInjectionSourceFilterTest.java;a8e0e9f3b7368ee3095953270416f06942e0f8d649f3ee1512d8f754ca6a4ac4:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/JdoInjectionSourceTest.java;dd397f0d5e901bf408cbde7f3a255166be699f72f63508a834bf3dd23915f466:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/JpaInjectionSourceTest.java</t>
+  </si>
+  <si>
+    <t>2989ddfe4f4d0c7dded34b73a9b115d43f8c3de0e29aba4b60cdf774f5ce38ff:pom.xml;2b33eeae0e656f2490eaeaecd9e59848fed88819632d7e7616c1fb4f4d158be1:src/main/java/com/h3xstream/findsecbugs/PredictableRandomDetector.java;429ced3c9881b85a53d3ac0533655347261f3bcac1dce1456338311195e66bd0:src/main/java/com/h3xstream/findsecbugs/ReDosDetector.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/main/java/com/h3xstream/findsecbugs/common/ByteCode.java;81a1c7143df420eb0aad755f9e52e852f025af97683185ccdf02de4623f64d71:src/main/java/com/h3xstream/findsecbugs/endpoint/CookieDetector.java;31076ebe2006102c7c9f07bf987733b21f7f7b89a7bb3b0db43ac8fa2c8bdfe5:src/main/java/com/h3xstream/findsecbugs/endpoint/ServletEndpointDetector.java;2a93d4795920455f8eea9c08cf5faf6fc0beeb5b7100dfd3ae36f770400b991b:src/main/java/com/h3xstream/findsecbugs/sql/HibernateInjectionDetector.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/main/java/com/h3xstream/findsecbugs/sql/JdoInjectionDetector.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/main/java/com/h3xstream/findsecbugs/sql/JpaInjectionDetector.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/main/java/com/h3xstream/findsecbugs/sql/SqlInjectionDetector.java;44e89c67798fcc5f0eb9228e0805c9630789da71c0bae99ee65472b7b83bcc17:src/main/java/com/h3xstream/findsecbugs/xpath/package-info.java;172b7aa6ab69ed805e5a9b5bbdbc6e770091086734509d44117852fc10592f6b:src/main/resources/metadata/META-INF/MANIFEST.MF;ce537ff20dc5912dc929c5e4d969d362037f81f2175d98b936747b4f497a3bb1:src/main/resources/metadata/findbugs.xml;4776da8c4ad3ef2ca311bd19ab74973a66df5a514fdd15dd12649bbfdd03fa7c:src/main/resources/metadata/messages.xml;0ff9a6fa9a1aa260f8192fe1e2ab2014fec11fa993c6e74ef6269f2a50dada7f:src/main/script/styles.css;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/test/java/com/h3xstream/findsecbugs/ReDosDetectorTest.java;c3c778ac5a3817f68c3e0fb3dc659ff9bbceb05ab4118d3e0a763ca4b26c6dbc:src/test/java/com/h3xstream/findsecbugs/endpoint/ServletEndpointDetectorTest.java;241bd34208212d46273930040e6486d3a76501e65f8fff18e4c68c39152330ff:src/test/java/com/h3xstream/findsecbugs/endpoint/SpringMvcEndpointDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/test/java/com/h3xstream/findsecbugs/sql/HibernateInjectionDetectorTest.java;cef6d8db1748a9a163458d07d31fbe19de49accab4d0475c802d28ab9157a216:src/test/java/com/h3xstream/testng/VerboseTestListener.java;04172121989b96bc8ebf78505e768558b705daa9fe1944f0cd8d79a956bfd3b6:src/test/java/edu/umd/cs/findbugs/test/DummyProgress.java;ef1aa1f81b2c9a97aedd34eb6f07564cbd5a17c86690e5186abb8a930fca9e0c:src/test/java/edu/umd/cs/findbugs/test/EasyBugReporter.java;95578dba5267580c98299aa4ba464fa23441c342d78ac4fbb6daf9ead561513c:src/test/java/edu/umd/cs/findbugs/test/matcher/BugInstanceMatcher.java;a7eee5c52cec43aafd317910aaed90495be4d889327210bac125908d4d80c8e0:src/test/java/edu/umd/cs/findbugs/test/matcher/BugInstanceMatcherBuilder.java;93b8355f4224a1f2d2f619e26a1472ae6a2d4f29338a4bdb7da16ea6ce7488ea:src/test/java/edu/umd/cs/findbugs/test/package-info.java;ad733ea3eea27e026865fdaaf0eec6b7804a6f55392964e3d8abeb59d3e149d0:src/test/java/testcode/BasicServlet.java;638359843a120d6c62fca8cf484fe02cfd1436d01cbd0bd61084d2d4c7123015:src/test/java/testcode/InsecureRandom.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/test/java/testcode/sqli/HibernateSql.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/test/java/testcode/sqli/JdoSql.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/test/java/testcode/sqli/JpaSql.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/test/java/testcode/sqli/TestEntity.java;afebd46d318494dee939abd8a3d48f4d0761c8b6070396bed1fde3770510379c:src/test/java/testcode/xpath/data.xml;fdd0a888b4acc44ab953a0d25927fc870425ab8744529f64024b11491c315461:src/test/resources/logback-test.xml</t>
+  </si>
+  <si>
+    <t>e6dd5ae9d045ac3f413bacc117fe7b9b161430401d2c2fe075c3acc8c96beddd:plugin-deps/pom.xml;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/BroadcastReceiver.java;54db3d4763874a423dce8dc639a057082eb59d5d0068b83cda3a92844926a661:plugin-deps/src/main/java/android/content/Context.java;af1aa3d9665522c40753515867b5ab8fb3418f7161cd2747175bfd65d03a330d:plugin-deps/src/main/java/android/content/ContextWrapper.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/content/Intent.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/os/Handler.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/os/UserHandle.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/webkit/GeolocationPermissions.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/webkit/WebChromeClient.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/webkit/WebView.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin-deps/src/main/java/android/webkit/WebViewClient.java;5f0226210a8a35156e2fe5f8dd33f6f3f87c00ebe9231fc956e27c025383ec5b:plugin/pom.xml;c68382744c441db1780cf7e79394e548c9ff96e4f96b87ef43448a398bfde31d:plugin/src/main/java/com/h3xstream/findsecbugs/CommandInjectionDetector.java;8332f78acdc43af1849803c745449e833e4420d8eb08428fbaf31d11cbcbf080:plugin/src/main/java/com/h3xstream/findsecbugs/PathTraversalDetector.java;263c32f892f37bf281b6a6fe1cbf2738e161bd24268fd01ea224303b7196b843:plugin/src/main/java/com/h3xstream/findsecbugs/ReDosDetector.java;f1c97944f456112d46573c75f026799857719ff0acf76f82d8f5213ae7da8d58:plugin/src/main/java/com/h3xstream/findsecbugs/android/BroadcastDetector.java;19df3c83ab990210c7f7eb8303909a0ecb2cc296de34ac43ed3fc8b53886c593:plugin/src/main/java/com/h3xstream/findsecbugs/android/ExternalFileAccessDetector.java;f7cff3dff972bd205d961de08f9a3a10ab43b6ba6384dc309fa137d3d36a9889:plugin/src/main/java/com/h3xstream/findsecbugs/android/GeolocationDetector.java;f21c0639e17b1db8279c0133221a9f4fc2b7f47d6edd476e5f4c2cc36748ce86:plugin/src/main/java/com/h3xstream/findsecbugs/android/WorldWritableDetector.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/java/com/h3xstream/findsecbugs/common/StackUtils.java;a12928a7c42c50bc1a62ceb408201adc500de06ef30dce678a045ecdb5afdab9:plugin/src/main/java/com/h3xstream/findsecbugs/crypto/CipherWithNoIntegrityDetector.java;c530114f21463a2333e50a1e6f823d16d944e69067411c1c43e62fa170c12529:plugin/src/main/java/com/h3xstream/findsecbugs/crypto/DesUsageDetector.java;0fbfc932c8b12729c2e5269ce4f89cc59166f9447e00cf2735f3f83070272e34:plugin/src/main/java/com/h3xstream/findsecbugs/crypto/RsaNoPaddingDetector.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/java/com/h3xstream/findsecbugs/injection/custom/CustomInjectionDetector.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/main/java/com/h3xstream/findsecbugs/injection/custom/CustomInjectionSource.java;2e5f6c0d6dd81245646189cc4907a6525aed97628fa1c557a028d1676066f6b1:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/SqlInjectionDetector.java;3191166385779587d1c67afbec741abcc560691914790e3dedaa233d344b04d1:plugin/src/main/java/com/h3xstream/findsecbugs/password/JndiCredentialsDetector.java;51ca5cc75a06ef616b6e5efc0f8e4271480ef6fcc4ad266c7d15a4281173840d:plugin/src/main/java/com/h3xstream/findsecbugs/xpath/XPathInjectionApacheXPathApiDetector.java;fb32ed6220733123ebd6c8864c0704e2bb38e71e5a21831c967ae9e128f3c52e:plugin/src/main/java/com/h3xstream/findsecbugs/xpath/XPathInjectionJavaxDetector.java;c859394b56538f62352b6f2b23170d069553b909fd7b3de3d9d3bda2f163edae:plugin/src/main/resources/metadata/findbugs.xml;dfe67515261c61518eb70fd3cd6a561355b0cc9de3f6861dc29fb48f097e7f1e:plugin/src/main/resources/metadata/messages.xml;b48c3d9e3a99cd705dc590c412f9020f2b5e186a3e49e308ff1f1767df9176f3:plugin/src/test/java/com/h3xstream/findsecbugs/android/BroadcastDetectorTest.java;487e47637998ab9077dcb374737898f4c8134bbff328499f4eb0e4bbdf524eac:plugin/src/test/java/com/h3xstream/findsecbugs/android/ExternalFileAccessDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/android/GeolocationDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/android/WorldWritableDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/com/h3xstream/findsecbugs/injection/custom/CustomInjectionDetectorTest.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/android/BroadcastIntentActivity.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/android/ExternalFileAccessActivity.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/android/GeolocationActivity.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/android/WorldWritableActivity.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/java/testcode/sqli/CustomInjection.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:plugin/src/test/resources/com/h3xstream/findsecbugs/injection/custom/CustomInjectionSource.properties;33dd1decf79ebbed5cf1bde459d05aeee968877cb601bdeca090fc885765ade7:pom.xml;8c569459fe38fcbd4c44c1ba549488a4783a1f17d2473f6ebe0f3197cc5eed0c:website/pom.xml</t>
+  </si>
+  <si>
+    <t>e5cc488e7e5031a009b9119ef5b47aee4e0e442a259dadecf73ccb07e1fdc906:collect_app/src/main/java/org/odk/collect/android/provider/InstanceProvider.java</t>
+  </si>
+  <si>
+    <t>1f59d49cbde26ab4328d6736f461749b0ae975c1c430e2f06209697ff0c6f914:src/info/guardianproject/otr/app/im/app/AccountActivity.java;7f1bdcc6dd5f712698823f6815ccbca6241d502eb6219ee5ed3a90bdf81e9752:src/info/guardianproject/otr/app/im/app/ContactsPickerActivity.java;4123b74649d2b238964efda752545b1ff04cb14dd0d705e09e586a4ce1b4ac2b:src/info/guardianproject/otr/app/im/app/SignoutActivity.java;dedc878fa60093e60d5562b1dfa70e832650af9c5ecb8af3bc1e6651b8a5a292:src/info/guardianproject/otr/app/im/provider/Imps.java;c8fd67c1ceead6bf1d1bd8076f74c35d7b6f854fa1b388201d78f288e09ed0d4:src/info/guardianproject/otr/app/im/service/ChatSessionAdapter.java</t>
+  </si>
+  <si>
+    <t>b47620416f7023c5093fe104600bd42080529da36003643520a49a873baa8754:config.xml;f00d07ca4858e6c7436dc62cc0577c7812c8ac6533dacfe536adc99bfb40f8cd:src/main/resources/ftl/sh.ftl;0bfcc25d5e028076219ebc59f64b2a6c951aca8e07a7534fd197dc983c008407:src/main/stories/authentication.story;287f147fa272803a6c992f99ab35335c46c0edc404a5287b9f8c2f5385eaed8c:src/main/stories/authorisation.story;d8221205f181d2a6fd5b1134a77f1042be3adb212931dd831d346c528b1730e0:src/main/stories/automated_scanning.story;649f658305262f0f4f7309816ce0b55045cb42b2f0113e519fc89bb0e7802bdb:src/main/stories/configuration.story;a5105bab405316d13c831c901b5b93c7021daba3afe9db1136a4e001513b37a7:src/main/stories/password_recovery.story;20aa887c599ac367d418e91aafbcf29df441a902a8d1d3c2c3da04ca34d981bf:src/main/stories/session_management.story</t>
+  </si>
+  <si>
+    <t>86505924a4e2132ef56bbdaf744f2380952fe23a09ef19acb6714f3482439e18:jeecg-module-system/jeecg-system-biz/src/main/java/org/jeecg/modules/system/mapper/xml/SysUserMapper.xml;5f5cfd81fe5e05f907da49470e8015a4ac4c32a5697b892b14bd54c33715d3bd:jeecg-module-system/jeecg-system-biz/src/main/java/org/jeecg/modules/system/service/impl/SysUserServiceImpl.java</t>
+  </si>
+  <si>
+    <t>d6d01d05292399a5d921dba9e835fa973355d5785ee787901ac6ea262a8c8bf2:src/main/java/org/joychou/controller/FileUpload.java;2d0d09c32d4c2032df46f40448e79e3450695333f508c049f9cbbd96fa1b2498:src/main/java/org/joychou/controller/SQLI.java;707db009e19443ff8f1d38f770a8cc6c4f8a784f9dae659d481c4a4bb2285e4e:src/main/java/org/joychou/controller/SSRF.java;474a344d9e30f9ad97744d84ce240844da45e833922670451bd354c99303b3a6:src/main/java/org/joychou/controller/URLWhiteList.java;2528dbbdca5c335d5d35fcb38d0f7860139dde0c2bc7b468a079479c48314f8a:src/main/java/org/joychou/dao/User.java;67ccfafefa6e5b7608d5f7b1dd8eeee9394edb50fb656ed69f7ec3fa1831baf0:src/main/java/org/joychou/mapper/UserMapper.java;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/main/java/org/joychou/security/DisableSpringSecurityFirewall.java;b9bb32add63252241382233fc1c4bc13dff93c664f7100d0cbf8ab1bd8d452a0:src/main/java/org/joychou/security/SecurityUtil.java;817a5f9ba8b03755b410b031feb42324ba187f98431c7d17ef056e8f48b7b470:src/main/resources/application.properties;43cc3c56c1ac7e978677daaf60e1282c285da49b182e3512d3b8d97ebbf4e2bb:src/main/resources/mapper/UserMapper.xml;2f076fca1233d9f600e5feef7536cdb250dfacea4331cba46757dcf293b65d2a:src/main/resources/templates/index.html;c0f064cca499cc07779be671ade233413810bfc1eedfa27df5885c08a4c79e94:src/main/resources/templates/uploadStatus.html</t>
+  </si>
+  <si>
+    <t>3d161bba6310d55314f92260822550fc70524660ce65e498ed98e0fbbf76ed77:src/com/mysql/jdbc/Connection.java;59bef392571d2132fca25ec70ed663ec6db7e756b79acb3ede8040caf147f182:src/com/mysql/jdbc/ConnectionImpl.java;6b847f72499bbf2d64ec157026489dc334691791db544aabb829ee4e614c6352:src/com/mysql/jdbc/DatabaseMetaData.java;58aab4815fa4cf608710d48183a46f8240adce6adf8552e19e056cbb02ddc180:src/com/mysql/jdbc/StringUtils.java;3f4bf48126bd055bbdbf1f7173f8e9fdb0dbb9170ce6db69af581d0487e1c637:src/testsuite/regression/MetaDataRegressionTest.java;b3c11c6faf7881ab5078b475de515748de231cba35124121b1fe06d67c878b71:src/testsuite/simple/StringUtilsTest.java</t>
+  </si>
+  <si>
+    <t>fb03efd40aaeed756b21e5c76519a47ae221f2b56251271f8b7a29e2fe5f419b:src/com/mysql/jdbc/ConnectionImpl.java;3d13f784253e942ea824b355335cc477f659b44f9cb7d888dd1671f13d1fbbfa:src/com/mysql/jdbc/PreparedStatement.java;7a51b9341ba91a48403638f5075b04082a0290a7113c8acda4105f1c0c414e3d:src/testsuite/regression/StatementRegressionTest.java</t>
+  </si>
+  <si>
+    <t>203eb23d204eab50c655eff1af812f9da93834fb4aae5b842ca347665f3935f0:presto-cli/src/main/java/io/prestosql/cli/CubeConsole.java</t>
+  </si>
+  <si>
+    <t>58916ae28e77f28939cfef586c9cfb33f178a5144a35d29a6cafb0e32a79d873:presto-cli/src/main/java/io/prestosql/cli/CubeConsole.java</t>
+  </si>
+  <si>
+    <t>52b2f105bf7fc1672c339678c61e2ec2b24669b930da7c0f44a2da7ecda91355:presto-cli/src/main/java/io/prestosql/cli/CubeConsole.java</t>
+  </si>
+  <si>
+    <t>20a36411025b4aaf150a0731f00dfffef9087f5d2f1106118f3df97830836f53:api/src/main/java/org/openmrs/util/databasechange/MigrateAllergiesChangeSet.java</t>
+  </si>
+  <si>
+    <t>1abe575d7417fac2093848a8d20bd01d10bfe09db5e55fe4030e968a0481f694:msgcntr/messageforums-component-impl/src/java/org/sakaiproject/component/app/messageforums/SynopticMsgcntrManagerImpl.java;f3f1ada92705d4146f0bf44330c8892236d559448c3f0fd983eab2f10dba0b57:msgcntr/messageforums-component-impl/src/java/org/sakaiproject/component/app/messageforums/jobs/UpdateSynopticMessageCounts.java</t>
+  </si>
+  <si>
+    <t>5f954b2b64813a95ae982ec349416fb9ba805d4a125a9b16c3c24db07bd53b5b:cachecloud-web/src/main/resources/mapper/AppDataMigrateStatusDao.xml;54ba88e1d59bc55fb95154282bc2c51dcd90d91528b6f881a5b81b91897826ce:cachecloud-web/src/main/resources/mapper/MachineDao.xml;eaaf35c709b9b8f408a23d34ee30385418d39dce30148e3269e969ec2a829bbf:cachecloud-web/src/main/resources/mapper/MachineStatsDao.xml</t>
+  </si>
+  <si>
+    <t>fec670cab72da531cd382eb2cb04ef5de55c010806725f987d7ae500f1ee61d5:jni/net_sqlcipher_database_SQLiteDatabase.cpp;d97ada068c7b8ea925024045481bf6f999f34cb71f34b13fc03eabdf3b3574da:src/net/sqlcipher/database/SQLiteDatabase.java</t>
+  </si>
+  <si>
+    <t>a2fb28f1e180cdb34c2597c7adfb680e638442c04341695b5de062d524e6b5e4:frameworks/Python/web2py/app/standard/modules/database.py</t>
+  </si>
+  <si>
+    <t>9dce59442a7c5e787c2bd8dc6256ec31c3cf0bbad0357a6483d3a78932b7a9fd:frameworks/PHP/peachpie/Benchmarks.sln;363db8e8725108322ddc846e8b111e4e863181ce973eb7982920d6d2464ec6c8:frameworks/PHP/peachpie/Server/Program.cs;76acce303c3a27fc394f81eaf8abf3eac4e4b2f1b549de97a09f2857f7f70368:frameworks/PHP/peachpie/Website/Website.msbuildproj;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:frameworks/PHP/peachpie/Website/db.php;ceac6eb12d4a30c1712ba3146f0c1f0dbec1c08c8c14b16e1f57e260c57cff36:frameworks/PHP/peachpie/Website/dbraw.php;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:frameworks/PHP/peachpie/Website/query.php;a2764a1b38274eeaf502c0a1bf6bbe784d385f8a5aeb02e927f51ae321373751:frameworks/PHP/peachpie/benchmark_config.json;850d938d9e84ea4a0d5e370a46a97bc70eee92645fc5395ea9229d75c2e41a78:frameworks/PHP/peachpie/global.json</t>
+  </si>
+  <si>
+    <t>a081c1943d1fa5f7d1a6a17e17ee12e16390053f9825cd96d79af5b2c3cc4980:plugin/trino-sqlserver/src/test/java/io/trino/plugin/sqlserver/TestSqlServerConnectorTest.java</t>
+  </si>
+  <si>
+    <t>4e0cf80fb7cecbba8b055d67b1f143dead125045754fc7c8eb42f3dde1b32613:packages/WAPPushManager/tests/src/com/android/smspush/unitTests/WapPushTest.java</t>
+  </si>
+  <si>
+    <t>878312b77e297275e0f63d5e901a2057b387cd4f96cff56c2bc916e9e0fa2687:packages/WAPPushManager/src/com/android/smspush/WapPushManager.java;85dd2327d167fb40623842ccf00ba6615e44cc617a0032c85048d4d79064335d:packages/WAPPushManager/tests/src/com/android/smspush/unitTests/WapPushTest.java</t>
+  </si>
+  <si>
+    <t>85dd2327d167fb40623842ccf00ba6615e44cc617a0032c85048d4d79064335d:packages/WAPPushManager/tests/src/com/android/smspush/unitTests/WapPushTest.java</t>
+  </si>
+  <si>
+    <t>878312b77e297275e0f63d5e901a2057b387cd4f96cff56c2bc916e9e0fa2687:packages/WAPPushManager/src/com/android/smspush/WapPushManager.java;4e0cf80fb7cecbba8b055d67b1f143dead125045754fc7c8eb42f3dde1b32613:packages/WAPPushManager/tests/src/com/android/smspush/unitTests/WapPushTest.java</t>
+  </si>
+  <si>
+    <t>fb81f4c44c00a9167e50e72c3ca3b0e2c237ef5bf6b451d310efa151d386c3c6:gobblin-metastore/src/main/java/gobblin/metastore/DatabaseJobHistoryStore.java;1ef0d7953492d4b25f2580e17f7c058eb8be6c5d39b4be2aaafbeaf692a8831b:gobblin-metastore/src/main/java/gobblin/metastore/database/DatabaseJobHistoryStoreV100.java;4d78981ffaa405a0aa4f9156f5dcde4c9327851b27f11b8f91fb8400487ad8cb:gobblin-metastore/src/main/java/gobblin/metastore/database/DatabaseJobHistoryStoreV101.java;7d0fb520c80280a6a25639a313fe1fe30be1cba79d8f55defe9564aaf2822c90:gobblin-metastore/src/main/java/gobblin/metastore/database/Filter.java</t>
+  </si>
+  <si>
+    <t>cefed4996c72a1de369b59eacbe3d3dde9df0aa4520e47b9fd5a7ae360394157:axelor-account/src/main/java/com/axelor/apps/account/exception/IExceptionMessage.java;6f82745ede30c12d2ad7d7794594c6952dd1e4fe6bae1742e118f2976820058a:axelor-account/src/main/java/com/axelor/apps/account/module/AccountModule.java;fbe2634a777eb574ba1c23a6c4991e1d2f76e51c4f5bcf4cde3126b7fe939a56:axelor-account/src/main/java/com/axelor/apps/account/service/AccountClearanceService.java;3fbe505b97bbec6f45e8aa37006b37fe4b7c867c81fccac6d9abc686d733d74b:axelor-account/src/main/java/com/axelor/apps/account/service/AnalyticMoveLineService.java;8c6b214b59401826f14cdb36f3c9ea399baef7f4936d7dff7437fc246095c9b4:axelor-account/src/main/java/com/axelor/apps/account/service/BankStatementService.java;e5544c60ec56288525e25cfbc80cccf7d7ab62e7f9e878029d4dd1b384473918:axelor-account/src/main/java/com/axelor/apps/account/service/ChequeRejectionService.java;33a3b28993129c0ed968e50d167a9beada50ce873ccb0e55838653b5d3b765b0:axelor-account/src/main/java/com/axelor/apps/account/service/InterbankPaymentOrderRejectImportService.java;d061d16181655680fc11aaa672bd3cd36716ae033099cf881bb0bdef26d368cb:axelor-account/src/main/java/com/axelor/apps/account/service/InvoicePaymentServiceImpl.java;bd6258a4dfe7e3f59652437429c805e7bb72d7bfcf9d5b5099a886ff0722c609:axelor-account/src/main/java/com/axelor/apps/account/service/IrrecoverableService.java;5a21b705bedc8e8369435121dd1b40ef70893344713ea748631c12e7451123cf:axelor-account/src/main/java/com/axelor/apps/account/service/MoveLineExportService.java;f580c66d6189f26793b7220ba4e494204315be3c326f83118a8aa973a07d501c:axelor-account/src/main/java/com/axelor/apps/account/service/MoveLineReportServiceImpl.java;7c9b8c703583e2c1624b6a291f1fa40aec4e0de0094d52302ea3de3d3ac93e12:axelor-account/src/main/java/com/axelor/apps/account/service/PaymentScheduleExportService.java;efe7d8c2325e0e6b82221e7a9ad2af85daf0cb47f6a7d66142e83ea51ae95c37:axelor-account/src/main/java/com/axelor/apps/account/service/PaymentScheduleImportService.java;ea402e9617ecf0bda2bdc34c8ba1bd5c2ff8e5f7ae393a7aba02c7f17476325f:axelor-account/src/main/java/com/axelor/apps/account/service/ReconcileSequenceService.java;9e59bad27ffd9030a48f00fad10b09228debf706f3fa01c27e85401ef8bf1927:axelor-account/src/main/java/com/axelor/apps/account/service/ReconcileService.java;da59f0174c4d87d5d7ba8c75986a95afd56cb9187dd3a880366fdf4e59f854dc:axelor-account/src/main/java/com/axelor/apps/account/service/ReconcileServiceImpl.java;c6fcd6e95fffb44401041007a8d83cbdbcd65b10d7d2fedbb767f504f920183e:axelor-account/src/main/java/com/axelor/apps/account/service/ReimbursementExportService.java;f5e4e921b340f56866efdf9445de1fa531bb983f5f0c6a1cec5b62da99c3daf3:axelor-account/src/main/java/com/axelor/apps/account/service/ReimbursementImportService.java;36f15a65707f46a46d8e81877ac7fdf409494daf8ee447738cb22fde0d0691d9:axelor-account/src/main/java/com/axelor/apps/account/service/YearService.java;cc6ad0b0bd2f4bc49f78098eefe29ce787b4866a25b0910256c3452681a7df98:axelor-account/src/main/java/com/axelor/apps/account/service/config/AccountConfigService.java;e229e069a6481973331343e6bc6b4b0da089db4580be1d969d1a2e1a4a8bc277:axelor-account/src/main/java/com/axelor/apps/account/service/debtrecovery/DoubtfulCustomerService.java;aebbc107496c2b8880f7be6486bb80919b232ec79aad07037542464e57a54488:axelor-account/src/main/java/com/axelor/apps/account/service/invoice/generator/InvoiceLineGenerator.java;5f587897dd7ae0924e4975e54d92cfa860483eefb9b0d2f61cf83e39bdcf411f:axelor-account/src/main/java/com/axelor/apps/account/service/move/MoveAdjustementService.java;8028a0daea56b97084b1e9fb31e2b0d40532b0d411237ee06fe6bb0044c925a5:axelor-account/src/main/java/com/axelor/apps/account/service/move/MoveCreateService.java;07f3aee2f4c3a7be9b521921baf667d0735ea405136a8fa7f2b349213d31005b:axelor-account/src/main/java/com/axelor/apps/account/service/move/MoveLineService.java;1242829ae3092ccf2e2065b880b7765f6c48bcb8a5933a9d76bc621b34973e4b:axelor-account/src/main/java/com/axelor/apps/account/service/move/MoveService.java;7add0d1cb55ed214d4f91a143f8da5f3216765adecceb0ad14fb718642a2d5c9:axelor-account/src/main/java/com/axelor/apps/account/service/move/MoveTemplateService.java;00054048f2a6760704668a7f110b07076e4a80ff91c2902776c83b1f8a1c0bd3:axelor-account/src/main/java/com/axelor/apps/account/service/move/MoveValidateService.java;59a071eba37066741062b8e50bc5fa033be8b77c0628c67f57a90d00428a3fb2:axelor-account/src/main/java/com/axelor/apps/account/service/payment/paymentvoucher/PaymentVoucherConfirmService.java;da539b57c88e6fa957be28b13d86bf84a4305d3b5a6d3df7f21afc14169af83d:axelor-account/src/main/java/com/axelor/apps/account/web/InvoiceLineController.java;8ad48a43474c388666571ac386c806b44a26e834a14172db1e6654f5bf4bf201:axelor-account/src/main/java/com/axelor/apps/account/web/MoveLineReportController.java;9c65b7cbfd1bff02266a20495a9dfdb9120ec613b3d7c302572f797a508bd3a1:axelor-account/src/main/resources/data-init/input/base_sequence.csv;c7fd40a180ffa69b15b741fa14e0cc20b435354c77b94ab60d46b97aa1ce6d86:axelor-account/src/main/resources/domains/AccountConfig.xml;92b60a6a2e407248e5e5dfc86c0ebdfdfb8b825098ab2d9fd42295843b04ca34:axelor-account/src/main/resources/domains/InvoiceLine.xml;45180255bef62ec07a4c3a6132d3313e4ebd24f7ed9b39def74a61e329713f0f:axelor-account/src/main/resources/domains/Move.xml;d0cbe3418a3525b172f4fc8be7e1adbda1720cc8418a34c70b81f0be9fbf5e06:axelor-account/src/main/resources/domains/MoveLine.xml;43e531d9a9f1434750554cfcee0542f24b8723259a0fbb058b335f4965576a85:axelor-account/src/main/resources/domains/MoveLineReport.xml;1cdb26320143cbdfa1d8035aec87b957f28042001db0a8538b5fd3d2230a79d6:axelor-account/src/main/resources/domains/Reconcile.xml;ce1d715209aba80828d057b102160de36bf098dda013ef0ef1ede7ec14173981:axelor-account/src/main/resources/domains/Year.xml;43429ee958b26762721fd1d8f03cd9cbc108ff3b5db43a010a41c0931feaeb98:axelor-account/src/main/resources/i18n/messages.csv;00c72f7057cad4aa9ff2fe0868fdd630a1e4431ebd8d81682bf37b4f7e5adf7f:axelor-account/src/main/resources/i18n/messages_en.csv;f820fb13ede96f601e276fb0e008da60173df11e51c65319f16d222c43e9b117:axelor-account/src/main/resources/i18n/messages_fr.csv;68288f2c414285b278dedadf7605a7f44b451947c24a0803159a2f157e8992c2:axelor-account/src/main/resources/views/AccountConfig.xml;59d1d8935396581b4cf420510abefbf39257f61575b849acef95b7c7038a8319:axelor-account/src/main/resources/views/Menu.xml;649424ddafdb3a848f5808a6fcc0428b2a37ba8f33cb6adf0a1090c4efa32d5b:axelor-account/src/main/resources/views/Move.xml;df27ad979b341e9f03d3b6bd1a03551415d46b13eaa2bd6b251ca8598fde784b:axelor-account/src/main/resources/views/MoveLine.xml;e625ceb5775754f945a6b20ac6d1a51984add6daeddd6190b22866f885e74e78:axelor-account/src/main/resources/views/MoveLineReport.xml;49c4d3786b03535895393306ba86ea52ec050fb4000fa3e44252084d281294e6:axelor-account/src/main/resources/views/Reconcile.xml;778039c9089b094653a4a46583cf383c5c4526e5d8b69f611b9dc83089266c2f:axelor-account/src/main/resources/views/Selects.xml;7e3a6436c050466879e3ef048a23ece47e0613f751d4fd2542f512c59fc45c33:axelor-account/src/main/resources/views/Year.xml;58626bcf00a9bd4f3ad28858e48a033927f4d886a5c86d882feebe046b82469d:axelor-base/src/main/java/com/axelor/apps/base/db/IAdministration.java;5b6e7f73a87854bff04b06d607282a31b69b72890bc53fbe142b13ace8c3a79a:axelor-base/src/main/java/com/axelor/apps/base/exceptions/IExceptionMessage.java;7aba157058e1886e69653641b0bac4ce95edb51dc0952378badbeb1194df900c:axelor-base/src/main/java/com/axelor/apps/base/service/PartnerService.java;fc8991a233279f8d2909ad9a14a3857635216dce20b8915af8047144ef8502a3:axelor-base/src/main/resources/domains/Period.xml;a8318c544362bc3661a612e0193b354fb59a94fd8290e743db812130870e892c:axelor-base/src/main/resources/i18n/messages.csv;dcb7fe989c902652b4df19c47a8cfbbcae1ba38b5b21a340aacfee194e8b88a4:axelor-base/src/main/resources/i18n/messages_en.csv</t>
+  </si>
+  <si>
+    <t>667360d456b9691a5c551a0b3a1b2048978e67ef12052db5a192c91c0d80f4d3:axelor-account/src/main/java/com/axelor/apps/account/exception/IExceptionMessage.java;6f82745ede30c12d2ad7d7794594c6952dd1e4fe6bae1742e118f2976820058a:axelor-account/src/main/java/com/axelor/apps/account/module/AccountModule.java;d7d2b3b81f3b03c39fd9a922ca9a6f90d849e6f7c99820fc81053ebfed71c631:axelor-account/src/main/java/com/axelor/apps/account/service/AnalyticMoveLineService.java;4e686554712d15ae5e11111cb08af0bde11724f11badd2cc5210e2018f4bf7a2:axelor-account/src/main/java/com/axelor/apps/account/service/ReconcileSequenceService.java;0d5144091dd460a7babd6c79cdc1b4ebb9a705427059c5c1b88e5d353f5ba7f8:axelor-account/src/main/java/com/axelor/apps/account/service/ReconcileService.java;3afbbcefcf2c080e1d16d52ae21f4c3f673aa252c8b894183944346ebad17ddc:axelor-account/src/main/java/com/axelor/apps/account/service/ReconcileServiceImpl.java;ac642685fc0e721d64501288a5ce6c355c3ac94cc0a736287442c73dab252f3d:axelor-account/src/main/java/com/axelor/apps/account/service/ReimbursementExportService.java;4c4a22c7781fc7b0e33a81461b529da7fb68ea0a3254174f32a2f56bf6110e75:axelor-account/src/main/java/com/axelor/apps/account/service/YearService.java;800de4d743b29eef6f167f3047dcda2be39664b000865150ceddcb6fbebbf928:axelor-account/src/main/resources/data-init/input/base_sequence.csv;661c175b41be8f15b18b4e1b63665eae070f3a7f50fbec27783b66c36a1e5db8:axelor-account/src/main/resources/domains/Reconcile.xml;5fd91c72e53ef329a831f05bfa7a57f3219d8580ca84c52c62702596e5ede51a:axelor-account/src/main/resources/i18n/messages.csv;362650006b08b0a03ba83cd0b1a276bb94818215aeb1438dd08f2dacc01daf0d:axelor-account/src/main/resources/i18n/messages_en.csv;8b6a817110607ba80d8cb258e2cbced0983ca5d4c242f65e58012e91eabc3834:axelor-account/src/main/resources/i18n/messages_fr.csv;919ed311e9cd8c7c1df588bdd66f93358028c0058379ca5b537ba9aa6da2fdaf:axelor-account/src/main/resources/views/Reconcile.xml;58626bcf00a9bd4f3ad28858e48a033927f4d886a5c86d882feebe046b82469d:axelor-base/src/main/java/com/axelor/apps/base/db/IAdministration.java;123d021d0144dd67158a64c30259dd68c2c9ad8f484d2bcf665e061766e1656f:axelor-base/src/main/resources/i18n/messages.csv;82b900b90aab4e5635d739646df5ba1bd1a624c5619577bdb4afeba66e75531a:axelor-base/src/main/resources/i18n/messages_en.csv;09ab78ab818c1ec102c96c803259ed8c679d0c49e4a12000b7f20f71c6aa091f:axelor-base/src/main/resources/i18n/messages_fr.csv;b6d628b6a00259f2692cb9de99526df26069b636cd844064f9061518a1261bbf:axelor-base/src/main/resources/views/Selects.xml;6f16c5d510ef3097f102d769ffd24c7362261586a3976b6beaacbfec5ff07342:axelor-business-project/src/main/java/com/axelor/apps/businessproject/service/TimesheetProjectServiceImpl.java;4b08911937d56eef52672cfe64c4771fddac588fa098f51062177904a60b497e:axelor-demo-en/src/main/resources/data-demo/input/base_sequence.csv;dba02440343f3807703ef9dad15456dcfba19e1bd17b755364d17e066f7c09b9:axelor-demo-fr/src/main/resources/data-demo/input/base_sequence.csv;36489df534f45393ed2bb4b7aff296a2e3e02e6202e97876b66fd8338f5a8c73:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/MailManagementService.java;82aeeedc90b4d3c1cc52626fec2b5ef904a016b84d0da8ef84e831521cc85e61:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/PayrollPreparationService.java;e737dbc19a53b787d2470c15931eef31765b2c55f301d808a7dd60426f7941c1:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/batch/BatchLeaveManagement.java;93234a06a30b70362950a39790a7a1937ed000ac83636b23852914db6d8db0ac:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/batch/BatchReminderTimesheet.java;97a4690b798cf8c853103dc761b0cdf3d0f4284ebcb0b5f525fc65df1f6025ec:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/employee/EmployeeService.java;2e808fe1d06bc18bdac8cb1912e59a6c08d330c6a1fc34c269a512c18bac67f2:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/expense/ExpenseService.java;4a47f06ecc0d153d4f0465d168d5607dec0265248891046e75ab5c58ea363a77:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/leave/LeaveService.java;d5ce46a4b45f0960887c5cfbd1d77bc00b067f212230e210805e1252b92c43e4:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/project/ProjectTaskService.java;76125665f06bff405a0ba1899cfafb7ae12a0c681ceaec521a755dc5d63d19ef:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/project/ProjectTaskServiceImpl.java;30f43cb7e301077ae07556fe519832539a5d84bb88203cb2a927380f5e3610f5:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/publicHoliday/PublicHolidayService.java;72f6499b2826369debe894cf86a24df7b147573ed9abe637a8046b22ec2e8b58:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/timesheet/TimesheetServiceImpl.java;f4c5574bf915ad944a0dbaa42452831b569ca7dbc60ef9cd3f74eba8dae2767c:axelor-human-resource/src/main/java/com/axelor/apps/hr/service/timesheet/timer/TimesheetTimerServiceImpl.java;53ce12a01fcdc45ed20a2adbc73ec2e0fe15d3281643850af7d6b01825e38a7f:axelor-human-resource/src/main/java/com/axelor/apps/hr/web/expense/ExpenseController.java;23cff5a5fa52fa5995eb266d870b042f1adf69f91fade01024082aa65c9b508b:axelor-human-resource/src/main/java/com/axelor/apps/hr/web/extra/hours/ExtraHoursController.java</t>
+  </si>
+  <si>
+    <t>cad0d564a06c42ef97e91b6838a50ddb64c6632a640de2a21352f8d030690a5c:src/main/resources/org/jraf/androidcontentprovidergenerator/abstractselection.ftl</t>
+  </si>
+  <si>
+    <t>224cdace09313a12b1f5ea61f5683dee6a802d8d404f277bca36d9381e030295:engine/src/main/resources/org/camunda/bpm/engine/impl/mapping/entity/Authorization.xml;7b12db73ead43d26395a41cebe0c634120fab458017623aeb7245a3584bc8dcd:engine/src/test/java/org/camunda/bpm/engine/test/api/identity/AuthorizationServiceTest.java</t>
+  </si>
+  <si>
+    <t>77171b06857b1df36bd774a3bb24edb03da0c4def4cf01fd773facf9a3a3577b:plugins/maven/src/main/java/org/jetbrains/idea/maven/plugins/sql/MavenSqlInjector.java;5f7cc7e207b8c810275d2f597f4dc5c7f03615e7ac80f083d29cc4117fececbc:plugins/maven/src/main/java/org/jetbrains/idea/maven/utils/MavenPluginConfigurationLanguageInjector.java</t>
+  </si>
+  <si>
+    <t>684b5055a6e1a258d715c0490fc762c6f2060638c55dfbda12ba54638e6a4795:plugins/groovy/src/org/jetbrains/plugins/groovy/lang/psi/patterns/GroovyElementPattern.java;41973be007a50ddf8738808330da188cbdeeeff6dd6f94d6102e8e0774c96117:plugins/groovy/src/org/jetbrains/plugins/groovy/lang/psi/patterns/GroovyExpressionPattern.java;c9dace74c1f568ce74194661326fb45c4f42b723a0e69016b372ba5ae8242812:plugins/groovy/src/org/jetbrains/plugins/groovy/lang/psi/patterns/GroovyMethodCallPattern.java</t>
+  </si>
+  <si>
+    <t>d76c86a48beec22372d7f009099a4194fdef7ee8883258a5157b455af5608a3e:api/system-current.txt;2969b32a5db887cbd5be00d24c7350c90eb79083fa7acb1252253ed32bd12dee:api/test-current.txt;7f27c66826d236556234b666d332d67df88439fe359f55acb87b8472e856f001:core/java/android/database/sqlite/SQLiteDatabase.java;b060a24f98bf41e1785924dcea0af77da883d9b126b235c65c6c41ca657c3412:core/java/android/database/sqlite/SQLiteQueryBuilder.java</t>
+  </si>
+  <si>
+    <t>f82a40ed140b733c873abc8e14bd0d6233b188678f894850897c805d32f3c403:.gitignore;27e81a588cb7e717f0158983aa618d7c3c011c72cf10d87c72706215b64f7213:build.xml;4684ce30dcbc8b4b2d1822cb2af227bcbd6e2d05cd927e38ae6c4f48fc74f1fc:build/built-jar.properties;f5102c9694d6147ea43d064cb7996a10830ade89e0e5361579d06d06be765dd9:build/classes/burp/BurpExtender.class;20c325ca02edb5fd4f689acb585c89e960367ff1725ea56cd28fde4cea952797:build/classes/burp/MenuItemListener.class;374d7f78451746e125f763d36e86edc3a729d50c1ca5ab038ed65e77e8a0811a:build/classes/burp/SQL_Menu.class;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:dist/Hack_Bar.jar;89fc9fb41c3b5325ef56fe1c458a2e933e6188a828bf91638b3df2f0078deb59:dist/README.TXT;9ca31d29cd6fa0344e3e971f2b184115367e1ed990c9d5cec292dd292db2be88:nbproject/build-impl.xml;2457e6d5b41be0047da9f6ed02d650b05c1a2fafe4004194e9940bf54c228255:nbproject/genfiles.properties;12e0c79f7b6c55471edb39b7b26ce35d6f7928cbb39da216f09a873629465f6d:nbproject/private/private.xml;edaba17e3c400ef9c28cf9978e0ea1852eac371af89cc679e970120e6a2cc942:nbproject/project.properties;85ba9196d533b93305e6171f591cf01397b024bdb9baf7667ef8a8971c172196:nbproject/project.xml;e93213b00d8f6a19503b21f726b957dd173aceaa6ee293e0dd12a4954382219e:src/burp/BurpExtender.java;1f0b514a24db791d5448bac6e967145cae202708d5fb96dca9fd2c0169960279:src/burp/Decoder_Encoder_Menu.java;4cb52bacbbfd30d64558997d2e99135c7f1f3bc5717c27c6a54d0ca1c66df063:src/burp/LFI_Menu.java;6589ffd5bd8bb993fd4865582d17001dc27c003961012e5606ad250c709f020f:src/burp/RCE_Menu.java;f90c6a04f97f2f24c9150ed24b710d3f627101d25eab5981d2f3ebf6718bc17f:src/burp/Reverse_Shell_Menu.java;a662bf6003fd02e77d81b4191c901c123f45b0ca8f29ba7c6482e17ccc28aabc:src/burp/SQL_Menu.java;44440f224a930280ae9c4ce3130e6695ff54e2575fed45edb50019cc042634e0:src/burp/WebShell_Menu.java;84e0c72665c8324813ce3502fdb650a80288fde24239521e6ba73b00627c40d3:src/burp/XXE_Menu.java</t>
+  </si>
+  <si>
+    <t>9a341110f37e92d6884bfbae25a678fe42b514d13f844115c38cdd15e2417194:web/app/controllers/api/v1/AdvSearch.java;1587ba98c4889306fe9ccea1e576ee2cf511715f64ed6393e5f36f4bdd759eb0:web/app/dao/DatasetsDAO.java;dcdfa146bdb1a23af568db09d0b9f7e42354130ed7c0ce558f9bdc29dbff1d66:web/app/dao/MetricsDAO.java;8902080dec378cd0e1adb578802773ca003d5ca2bf04aabc7cdd24fe2e1e2be9:web/app/views/main.scala.html;3c54a460760cfee4b85c2142a164f6b940a158e3b92790ef34fba2d6b585699a:web/public/javascripts/search.js</t>
+  </si>
+  <si>
+    <t>dcdfa146bdb1a23af568db09d0b9f7e42354130ed7c0ce558f9bdc29dbff1d66:web/app/dao/MetricsDAO.java</t>
+  </si>
+  <si>
+    <t>2d13fd59b0fbe3a9d68a0a9bd331bf5c2782b2acf5a616755a51722266dda0a3:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/SqlInjectionDetector.java;dee114a1917860f91bcfe02aa09f4611f3771fb8d6670ba58383d0f38f09a555:plugin/src/main/resources/injection-sinks/sql-scala-slick.txt;e90aaceb903c0abb4d51d248e3499536de041d2758a1ccf2b2e5f44d7f7c2a31:plugin/src/main/resources/metadata/findbugs.xml;3cac27741cc53c156c3cc9e8681d3ef2cba873ab2b1b60d9edbcd479d05924e5:plugin/src/main/resources/metadata/messages.xml;f840b905bcf8675970159e9d4b5c2e60f74a1e37c94b47f41857274c65b8d46a:plugin/src/test/java/com/h3xstream/findsecbugs/scala/ScalaSqlInjectionSlickDetectorTest.java;6b8271cd9e65efc4ef73c78740f5abbddf906ca4fe9e47772de0268595bd86bc:plugin/src/test/resources/bytecode_samples/scala_sql_injection.jar</t>
+  </si>
+  <si>
+    <t>8008a7a0a6a74d4b922e2ca68655931833a8cf4458990bc2f1fceeb784e80ae8:plugin-deps/src/main/java/android/content/ComponentCallbacks.java;62732b5ddc7411a72e849b10f7eb24fa63f8b692fdb20e37c009e76ada0fcdac:plugin-deps/src/main/java/android/content/ComponentCallbacks2.java;d83a2476c0061276541ad06501dbd0cd0e5baed24721c59ecfc15737f5c79709:plugin-deps/src/main/java/android/content/ContentProvider.java;7b4f9a54630b8ddfa4060b81f6f58f78a9e6e48b8871e19b981d15be50adea16:plugin-deps/src/main/java/android/content/ContentResolver.java;f44fb7e3dc02ec650692d85e8fcec0932e1ca899c93ce1266435e461fedf5fdf:plugin-deps/src/main/java/android/content/ContentValues.java;ccf988b72d5823c7887067194467530b18af18445e7fd935548c4754689112c4:plugin-deps/src/main/java/android/content/OperationApplicationException.java;0886da61722a4385464de48a82c0babacd6994c3b24227de6354bd62642f8184:plugin-deps/src/main/java/android/content/UriMatcher.java;14210edda4d99d3b512b6215562c7e072a221bbb8066803abe11b07e7ad3c35e:plugin-deps/src/main/java/android/content/res/Configuration.java;458ed2b561bb68dfcbab135fcfde86a348c7aca6c16c6fa08d1a16097182ea72:plugin-deps/src/main/java/android/database/CharArrayBuffer.java;f74b3de9c6e2ac45072fc52ba00d82e2b8e7433da6a3f48cbdd2777d1824dda1:plugin-deps/src/main/java/android/database/Cursor.java;00d0e44b4edf5144725bbeb740c85a122231007d34046545812f25cb0d665e67:plugin-deps/src/main/java/android/database/DatabaseErrorHandler.java;da6484dbb73ce07f3a013129482f55fdd4cacef03460a058307ef97008786802:plugin-deps/src/main/java/android/database/DatabaseUtils.java;fe435297269c4787498a2b551169f129fbc87cd99c11129cbdbf9ec5dfa9bbdd:plugin-deps/src/main/java/android/database/SQLException.java;6931c191df2936b034d411742702847f3a3f863ad5e71406077c0e5c27acf31c:plugin-deps/src/main/java/android/database/sqlite/SQLiteClosable.java;bc5e8c3eeef3879e2f111539da391e210559dce744ac8d962250e82f5a6e06bf:plugin-deps/src/main/java/android/database/sqlite/SQLiteCursorDriver.java;fe561689554970a6500f39d733a20c6ce47ee6b451ce1f06a692a61d24daf3bb:plugin-deps/src/main/java/android/database/sqlite/SQLiteDatabase.java;6d48e1df322bf90a2bf52f2e68042f65d82ff5583728b2b4af2489fbcf3b304c:plugin-deps/src/main/java/android/database/sqlite/SQLiteException.java;0f938eee62e348f79e9eb768663283914c06940e51d693935e57500895b0442d:plugin-deps/src/main/java/android/database/sqlite/SQLiteOpenHelper.java;83c994510fc6caf47f82ad4c6c00fcc7f5927b667e2bed2add1dc051dd78d3bd:plugin-deps/src/main/java/android/database/sqlite/SQLiteProgram.java;7522c6d5274a442513ddb2a0831ff5fd1206950865c0cc255b77aea907b69e05:plugin-deps/src/main/java/android/database/sqlite/SQLiteQuery.java;528d0874556988f27c8546bf7737bf3b96c3063c4d255f7d23c8a6e267ad9851:plugin-deps/src/main/java/android/database/sqlite/SQLiteQueryBuilder.java;2f05280dba89ed94caa6d640597f9cad34d2597f1382a61901e25982ae87e06e:plugin-deps/src/main/java/android/database/sqlite/SQLiteStatement.java;44faf3445f617d13c07b7da77644ddeb38d2659efc651d59abc860efa2f13332:plugin-deps/src/main/java/android/database/sqlite/SQLiteTransactionListener.java;e539153b9ed5a9e7cff5231a07a4bdcc499979b27a31e1bc9b8b0b8c11637c30:plugin-deps/src/main/java/android/net/Uri.java;d2dd7e022928b398b5ebd3d6e4996b9e8db63a5f7b4f6f6779dbaa820efeff5f:plugin-deps/src/main/java/android/os/CancellationSignal.java;e26c9f1d9236e0d2b6f8db30d15a484a8374d418ef91c95a7e2ebbffec1f8dfe:plugin-deps/src/main/java/android/os/IBinder.java;da90e4010bdf53e6eeaef6f41cda9790a0f6e32977d5e0704172064cc52a3ff5:plugin-deps/src/main/java/android/os/Parcel.java;0110bcf043e587c21ce38660be54a57b075166bfaef3b7b4572794c82f1214ac:plugin-deps/src/main/java/android/os/ParcelFileDescriptor.java;aa6eaf4f114dae3a5e8a52702831df956eb02cb638f7f1da7fd16dd5fd6a5a2c:plugin-deps/src/main/java/android/os/Parcelable.java;461fa113914f58635f952c825feea93109557a084ff0703daae9d740938f5a1c:plugin-deps/src/main/java/android/util/Log.java;240177ed8e4a3251d69aa731d6a53568c88cdf51934fbfc7d2e3c702e93051ab:plugin-deps/src/main/java/android/util/Pair.java;67fed5fadc7e2c3e62b9976084d8226eaf75fdb5fe9eda5a07847142dd76c492:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/AndroidSqlInjectionDetector.java;75b4228cb91686be57d5711ee18f3007cf43858299cd869593f12c3489bfa202:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintDataflowEngine.java;ffbd8b2182dec33d9a1fceb06379f3a2f2f4ac867a8dd9c9f2961302479aaf5d:plugin/src/main/resources/injection-sinks/sql-android.txt;7bba3be34ce304a64e167a97c0070884b72c85abef36737c7d8812cb0ef9012a:plugin/src/main/resources/metadata/findbugs.xml;f97fc6d66749b947b4f4cb91c77ae5cf267dbb9afbe8c0ddc9fe3855ebd88de3:plugin/src/main/resources/metadata/messages.xml;0447c3abe2a2d0f9afc9882ce3787c28a1ba982c2a178ee28570724f36d4aa46:plugin/src/main/resources/taint-config/android-taint-sql.txt;a1bfb8648ec868d456636485c7a42edc546b7a5a9c085cd7a56326634b0dae40:plugin/src/test/java/com/h3xstream/findsecbugs/injection/SinkFilesValidationTest.java;19a749a12bb2e890f22ad848fa6b74ec1e00f2420b23b997dd484129fedccaac:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/AndroidInjectionSourceTest.java;574a79b650a7992d802773d236e5eba554997aba8257fb42f39c94a528e2e34d:plugin/src/test/java/com/h3xstream/findsecbugs/taintanalysis/BaseConfigValidation.java;61551cf82beec357919d856006b21ef9b4831f3bc6479d9507964c22b479336d:plugin/src/test/java/com/h3xstream/findsecbugs/taintanalysis/TaintConfigValidationTest.java;a29b762979683d758073b22d02eadc14062da328340a466e9e8f82a1bce5a1ec:plugin/src/test/java/testcode/sqli/android/AndroidContentProviderUsage.java;969f50d2ffa616942307ed26131f0af4fecf6081e5bb8f304e94b144e428bf19:plugin/src/test/java/testcode/sqli/android/AndroidSql.java;002aa857c8a64c4680ef1c1794c6a263afa24edaa0bf93beaf5528afb2f9f30e:plugin/src/test/java/testcode/sqli/android/LocalProvider.java;12b930d0508e2736f66e30c90b4b0b2c9bdaf573a85f3864b993275d428d3a4d:plugin/src/test/java/testcode/sqli/android/NullContentProvider.java</t>
+  </si>
+  <si>
+    <t>b505c8a8975c9f92e4bc75ba1d504614f4368bb1e6f559fc9e93eea75d9f306d:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/SqlInjectionDetector.java;74075f9929404c48cceb7b96fe6ba97787eac2e21375975074ff7c2ce1ff814a:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintClassConfig.java;45993c917f09545f29f715d51d658a4cdf3242c69e0e78697636e080ced430a2:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintFrameModelingVisitor.java;1e92d1570876afe53a051f1df1c70b9024e052d85dda718c11e20800e6673a3b:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintMethodConfig.java;7bcc0e705dd1e0d5247d6fc3d61e782a267e44cc80e4fe0399fd4cf30ba1c964:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintMethodConfigWithArgumentsAndLocation.java;97fdf89e17b3991ee6b59719876e77e384ea75b166b48ef96a0421af727190c6:plugin/src/main/resources/injection-sinks/sql-scala-anorm.txt;ee4e792f11ce4a1332b9ccc57b5fb40657bf46565126421d61718fd840655b3e:plugin/src/main/resources/metadata/findbugs.xml;9e0ac9c8d6d036212ecf7d55ffd7b4eb20c5922f454d983b3c6e9a79cc7163ee:plugin/src/main/resources/metadata/messages.xml;703b30f4f1e33959869b076edc077be4018daf387e140484cbc5b397e064f9ad:plugin/src/main/resources/taint-config/scala.txt;6204869f39f9c5d64b528663b14c1ab654220df940e1f37e18c4797f4ef881cd:plugin/src/test/java/com/h3xstream/findsecbugs/scala/ScalaSqlInjectionAnormDetectorTest.java;0b616e38191574724cbe05bbcd3b506bc2f31f59b35633f6eef24d43fdf098c0:plugin/src/test/resources/bytecode_samples/scala_sql_injection.jar</t>
+  </si>
+  <si>
+    <t>d5cd3e021b3d1e0f300011dd75247a211d3a56c1d1b2f479208278b370fa80fc:findbugs-test-util/src/test/java/com/h3xstream/findbugs/test/BaseDetectorTest.java;33f89ab9a5f2a6846e9e0101788aedfdfa4da8ffdeb50e0863320ca568a5f360:findbugs-test-util/src/test/java/com/h3xstream/findbugs/test/EasyBugReporter.java;9a779e60dce2f884242743025514c6fe0cedb2971cdf46b97106bfbd2840124d:plugin-deps/src/main/java/javax/servlet/http/HttpServletResponseWrapper.java;90e716f55d6cb9b43d809645f127b7c852adcb2747b6220c1795da13c207efe6:plugin-deps/src/main/java/org/apache/torque/util/BasePeer.java;134a6cb8a31afafdf8edb06da63dc088687e282dc0a32bcca643278c2e7c2ea3:plugin-deps/src/main/java/org/apache/turbine/om/peer/BasePeer.java;9d5713ec1808951e194dc01fc1a2b18e324f1a7499d344a346d8af3943c77e42:plugin-deps/src/main/java/org/apache/turbine/om/security/peer/GroupPeer.java;95f5c123ed7e23c2c28db208548d54f7a991d82b8a75115ddc995c41c9c9a7ad:plugin-deps/src/main/java/org/apache/turbine/util/db/Criteria.java;f4acd521d01c663de44135b5a97bc8c3de9827460057e9676d3640016726a586:plugin-deps/src/main/java/org/apache/turbine/util/db/pool/DBConnection.java;29face33a8dee09b9eb7e4656e662c45c3fa91f038bf48d696a5f92f89f0db0d:plugin-deps/src/main/java/org/apache/xml/security/utils/JDKXPathAPI.java;4adf06fe887abc28f5355b85486a7e574e9746b89b22b7daead5aa0d8cb2f4d8:plugin-deps/src/main/java/org/apache/xml/security/utils/XPathAPI.java;07f672c0b5cb8be5c57b6e6c368420d20592119dc62d7278ce4384f9a6cbfb9f:plugin-deps/src/main/java/org/apache/xml/security/utils/XalanXPathAPI.java;ebdc8be2e3e273f8c276a0d7ae8a00cdfd1bf3ae427acd82b6139680748e2fa0:plugin/src/main/java/com/h3xstream/findsecbugs/injection/BasicInjectionDetector.java;af200028b8682784ac26bae01369e3a5cadfd3d7a5acd706f707a57c6a6b8e34:plugin/src/main/java/com/h3xstream/findsecbugs/injection/SinksLoader.java;10f91acc5c21f9fc7df5e34c06732c03858e8b3424d1ddac0bc5b7d611daad0d:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/SqlInjectionDetector.java;b459646cf1aa76ae12f859cf54111f2affc37ac02060bb11c58b4d3d89061d55:plugin/src/main/java/com/h3xstream/findsecbugs/jsp/JstlOutDetector.java;a15f9b216eb380c487912c61c0388d940b1daedbb67a453d4fc0c04ee760f892:plugin/src/main/java/com/h3xstream/findsecbugs/password/IntuitiveHardcodePasswordDetector.java</t>
+  </si>
+  <si>
+    <t>134a6cb8a31afafdf8edb06da63dc088687e282dc0a32bcca643278c2e7c2ea3:plugin-deps/src/main/java/org/apache/turbine/om/peer/BasePeer.java;9d5713ec1808951e194dc01fc1a2b18e324f1a7499d344a346d8af3943c77e42:plugin-deps/src/main/java/org/apache/turbine/om/security/peer/GroupPeer.java;95f5c123ed7e23c2c28db208548d54f7a991d82b8a75115ddc995c41c9c9a7ad:plugin-deps/src/main/java/org/apache/turbine/util/db/Criteria.java;f4acd521d01c663de44135b5a97bc8c3de9827460057e9676d3640016726a586:plugin-deps/src/main/java/org/apache/turbine/util/db/pool/DBConnection.java;ebdc8be2e3e273f8c276a0d7ae8a00cdfd1bf3ae427acd82b6139680748e2fa0:plugin/src/main/java/com/h3xstream/findsecbugs/injection/BasicInjectionDetector.java;3d1ac62715a0277c8c55e5a8c2b8002d764a7428802c842346c3c54a7f8403a0:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/SqlInjectionDetector.java;4b907be67d0f9d826b765b0ddd56e87effa5fab1812d079e5d05872341b6209e:plugin/src/main/resources/injection-sinks/sql-turbine.txt;6cded9a3cf27788a84c97bb06e207f333d46a9564861fea93c4dfdd6374fb8c2:plugin/src/main/resources/metadata/findbugs.xml;ce9a4e76fd7dc80a2e2d9a6fb88299b3bb76e410f850c9a6b2387411a5b96365:plugin/src/main/resources/metadata/messages.xml;ea897b2d86ea6ccb28ef86894e50987dfab7dfb513a9aa0bd9be8fa8a60093f7:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/TurbineSqlDetectorTest.java;d0ca2e64fc0853c03fccf7e3e3de15627cd86154cd2b041dd333b0947f22f1b9:plugin/src/test/java/testcode/sqli/TurbineSql.java</t>
+  </si>
+  <si>
+    <t>d2ad096e4135953b544bb9ac6d4c61dccd37a121b3e700c2f321b9c5b909b4e1:pom.xml;e390c738ff6be6383b3199301f50669fb0c4ac50986aba9a52db1eeecc779a6a:src/main/java/com/h3xstream/findsecbugs/sql/HibernateInjectionDetector.java;0c1f0dc02a76afbab8c801aa4cf9dc32fdffe8d0ff70bdb809436bdcd5ff3776:src/main/java/com/h3xstream/findsecbugs/sql/JdoInjectionDetector.java;41454ca66d307eeb2c0d816eeeaf12b79e527072ad4bdc8ab943a9e1dc943fd7:src/main/java/com/h3xstream/findsecbugs/sql/JpaInjectionDetector.java;55211774363108c716a798bad554985afab7c4f77156f9636bc58b874067bc61:src/main/java/com/h3xstream/findsecbugs/sql/SqlInjectionDetector.java;2bee4e9e94c111850e2f1de09c19fb4be45912e3236f5193241a9a68a16dfccb:src/test/java/com/h3xstream/findsecbugs/CommandInjectionDetectorTest.java;b741a5d7175a48f4abf155473b7efeb66427d0f3d41519920a26981230a756bc:src/test/java/com/h3xstream/findsecbugs/sql/JdoInjectionDetectorTest.java;98b2b3be0cb5826c91ee4726d65344ccd98eeab6aa869db407fffbff1ecc3e72:src/test/java/com/h3xstream/findsecbugs/sql/JpaInjectionDetectorTest.java;a3dc87d24e7b3bf994aa1f419aff177f1f009f1bca8f071a43f5234ec528e5e0:src/test/java/testcode/sqli/HibernateSql.java;2bbb3312017456cd63cfd49a825de8e4c381bd18c5ac248f044adc179c6bab1a:src/test/java/testcode/sqli/JdoSql.java;fd109d999cb9c45ec5327e63c2c65bdf77b55578bdd47ac72f2a7eb7a92e360e:src/test/java/testcode/sqli/JpaSql.java;8a59b911fb0356299951635ad80c5cce11ab71abe3e12b4b82d192f3f42e4262:src/test/java/testcode/sqli/UserEntity.java</t>
+  </si>
+  <si>
+    <t>4cd4ded3361938c62add959d2b7ef161b547c6e12a1476c0ba1883a47adeaefa:findbugs-test-util/pom.xml;15b879c750e37509bb56ceb9e74332bc52b7229f340bd4b956ac639587f32c9f:findbugs-test-util/src/test/java/com/h3xstream/findbugs/test/BaseDetectorTest.java;8008a7a0a6a74d4b922e2ca68655931833a8cf4458990bc2f1fceeb784e80ae8:plugin-deps/src/main/java/android/content/ComponentCallbacks.java;62732b5ddc7411a72e849b10f7eb24fa63f8b692fdb20e37c009e76ada0fcdac:plugin-deps/src/main/java/android/content/ComponentCallbacks2.java;d83a2476c0061276541ad06501dbd0cd0e5baed24721c59ecfc15737f5c79709:plugin-deps/src/main/java/android/content/ContentProvider.java;7b4f9a54630b8ddfa4060b81f6f58f78a9e6e48b8871e19b981d15be50adea16:plugin-deps/src/main/java/android/content/ContentResolver.java;f44fb7e3dc02ec650692d85e8fcec0932e1ca899c93ce1266435e461fedf5fdf:plugin-deps/src/main/java/android/content/ContentValues.java;ccf988b72d5823c7887067194467530b18af18445e7fd935548c4754689112c4:plugin-deps/src/main/java/android/content/OperationApplicationException.java;0886da61722a4385464de48a82c0babacd6994c3b24227de6354bd62642f8184:plugin-deps/src/main/java/android/content/UriMatcher.java;14210edda4d99d3b512b6215562c7e072a221bbb8066803abe11b07e7ad3c35e:plugin-deps/src/main/java/android/content/res/Configuration.java;458ed2b561bb68dfcbab135fcfde86a348c7aca6c16c6fa08d1a16097182ea72:plugin-deps/src/main/java/android/database/CharArrayBuffer.java;f74b3de9c6e2ac45072fc52ba00d82e2b8e7433da6a3f48cbdd2777d1824dda1:plugin-deps/src/main/java/android/database/Cursor.java;00d0e44b4edf5144725bbeb740c85a122231007d34046545812f25cb0d665e67:plugin-deps/src/main/java/android/database/DatabaseErrorHandler.java;da6484dbb73ce07f3a013129482f55fdd4cacef03460a058307ef97008786802:plugin-deps/src/main/java/android/database/DatabaseUtils.java;fe435297269c4787498a2b551169f129fbc87cd99c11129cbdbf9ec5dfa9bbdd:plugin-deps/src/main/java/android/database/SQLException.java;6931c191df2936b034d411742702847f3a3f863ad5e71406077c0e5c27acf31c:plugin-deps/src/main/java/android/database/sqlite/SQLiteClosable.java;bc5e8c3eeef3879e2f111539da391e210559dce744ac8d962250e82f5a6e06bf:plugin-deps/src/main/java/android/database/sqlite/SQLiteCursorDriver.java;fe561689554970a6500f39d733a20c6ce47ee6b451ce1f06a692a61d24daf3bb:plugin-deps/src/main/java/android/database/sqlite/SQLiteDatabase.java;6d48e1df322bf90a2bf52f2e68042f65d82ff5583728b2b4af2489fbcf3b304c:plugin-deps/src/main/java/android/database/sqlite/SQLiteException.java;0f938eee62e348f79e9eb768663283914c06940e51d693935e57500895b0442d:plugin-deps/src/main/java/android/database/sqlite/SQLiteOpenHelper.java;83c994510fc6caf47f82ad4c6c00fcc7f5927b667e2bed2add1dc051dd78d3bd:plugin-deps/src/main/java/android/database/sqlite/SQLiteProgram.java;7522c6d5274a442513ddb2a0831ff5fd1206950865c0cc255b77aea907b69e05:plugin-deps/src/main/java/android/database/sqlite/SQLiteQuery.java;528d0874556988f27c8546bf7737bf3b96c3063c4d255f7d23c8a6e267ad9851:plugin-deps/src/main/java/android/database/sqlite/SQLiteQueryBuilder.java;2f05280dba89ed94caa6d640597f9cad34d2597f1382a61901e25982ae87e06e:plugin-deps/src/main/java/android/database/sqlite/SQLiteStatement.java;44faf3445f617d13c07b7da77644ddeb38d2659efc651d59abc860efa2f13332:plugin-deps/src/main/java/android/database/sqlite/SQLiteTransactionListener.java;e539153b9ed5a9e7cff5231a07a4bdcc499979b27a31e1bc9b8b0b8c11637c30:plugin-deps/src/main/java/android/net/Uri.java;d2dd7e022928b398b5ebd3d6e4996b9e8db63a5f7b4f6f6779dbaa820efeff5f:plugin-deps/src/main/java/android/os/CancellationSignal.java;e26c9f1d9236e0d2b6f8db30d15a484a8374d418ef91c95a7e2ebbffec1f8dfe:plugin-deps/src/main/java/android/os/IBinder.java;da90e4010bdf53e6eeaef6f41cda9790a0f6e32977d5e0704172064cc52a3ff5:plugin-deps/src/main/java/android/os/Parcel.java;0110bcf043e587c21ce38660be54a57b075166bfaef3b7b4572794c82f1214ac:plugin-deps/src/main/java/android/os/ParcelFileDescriptor.java;aa6eaf4f114dae3a5e8a52702831df956eb02cb638f7f1da7fd16dd5fd6a5a2c:plugin-deps/src/main/java/android/os/Parcelable.java;461fa113914f58635f952c825feea93109557a084ff0703daae9d740938f5a1c:plugin-deps/src/main/java/android/util/Log.java;240177ed8e4a3251d69aa731d6a53568c88cdf51934fbfc7d2e3c702e93051ab:plugin-deps/src/main/java/android/util/Pair.java;f1ab28662d71efc890427e93bbb5db65271ae6f7e24ba57551dca2cb3191962c:plugin-deps/src/main/java/com/opensymphony/xwork2/ognl/OgnlReflectionProvider.java;f34fda5dda5a3081333f9563a922a556b0fc6bdbb9504b6e1448b699d487fec4:plugin-deps/src/main/java/com/opensymphony/xwork2/ognl/OgnlUtil.java;e4107e36fef474a283d9e9eb3374b5fe09ac4f4ebcc31c63bf6c2e7d96ef66d4:plugin-deps/src/main/java/com/opensymphony/xwork2/util/OgnlTextParser.java;445553ce047dd6941aa987787e7cad6d8b71d81fdcc680e79c973714903f0e8a:plugin-deps/src/main/java/com/opensymphony/xwork2/util/TextParseUtil.java;c74edaa3b043a64337efe722e9f37db18e6b9792374567f669a15a93b470558d:plugin-deps/src/main/java/com/opensymphony/xwork2/util/TextParser.java;7a6255d2e2ca1378f02bec58c5ba31cc0fac2490ac08f314a9673b532a8cf726:plugin-deps/src/main/java/com/opensymphony/xwork2/util/ValueStack.java;964862e85aeaff2c51fd0c1f8f24f8de12bf07a228741c0ac9a6a01421bc0b8c:plugin-deps/src/main/java/com/opensymphony/xwork2/util/reflection/ReflectionProvider.java;7bf9f664fc6227e1e8003db02131f039a3356a54dc4b04db632e3eeca40ed3f6:plugin-deps/src/main/java/ognl/ClassResolver.java;b594a08b1045f60cda65090fcdcf2f530a76df9e129703268a00536cd144f750:plugin-deps/src/main/java/ognl/OgnlException.java;77713507831f81445a78a0e220c44489a77fb014a4d3effbc3451f7353c2aa8f:plugin-deps/src/main/java/ognl/TypeConverter.java;495584cc344527ad005544520ec51f77f9cd03d699f70928bbd2c90fb4be312f:plugin-deps/src/main/java/org/apache/struts2/util/StrutsUtil.java;ac0868d2a31e6f779bc2c7b61860499126fe6973327a15a857d483f7d4008b15:plugin-deps/src/main/java/org/apache/struts2/util/VelocityStrutsUtil.java;83e56c6386d6b46728510992870f60e61bf0190fc3ba1956e560c08e1ebb805e:plugin-deps/src/main/java/org/apache/struts2/views/jsp/ui/OgnlTool.java;dc59db9fbd6b1abb4b51411215bd57e21d005f97221c83201caeab70bad999ce:plugin-deps/src/main/java/org/apache/velocity/app/VelocityEngine.java;c96cf5022d3a3fa8049253d55ec90505940a1c4edf38489c5613d61567f69437:plugin-deps/src/main/java/org/owasp/esapi/Encoder.java;35fbb9c194bd9166dae72ac3f66c897031364c5f55ef075573d80637d4d958ab:plugin-deps/src/main/java/org/owasp/esapi/codecs/Codec.java;28f046d1311e6d2f15edc64a2853bf07c1e327297b6fb30ff61a0b8bab14a772:plugin-deps/src/main/java/org/owasp/esapi/codecs/WindowsCodec.java;2b439ec7efa7aa676999b4c9b721b09bc54a9e757d7b30564ca7856f6e55cebc:plugin/pom.xml;6c4e7204e9eeef474ba2893e200dedc993be6e0cc617dabb09f3f01f60b32f45:plugin/src/main/java/com/h3xstream/findsecbugs/HttpResponseSplittingDetector.java;44aa6208b6489805009ed8dd7aa227dd48fb7e11c7150f180e6a367457a25897:plugin/src/main/java/com/h3xstream/findsecbugs/injection/AbstractInjectionDetector.java;4d45531112f61527ea4f4067e4e43ea0884a62196bf7a81817d9e12e9522d48f:plugin/src/main/java/com/h3xstream/findsecbugs/injection/InjectionSink.java;c307b4c8caf1c97b79056f8589b6ee7e88f62be6c633abab0a7443d3256d5dcf:plugin/src/main/java/com/h3xstream/findsecbugs/injection/SinksLoader.java;98ef358835e1a3e5aa224926bb8a05d807e82c1cca84e9c86cde23bd062ee73b:plugin/src/main/java/com/h3xstream/findsecbugs/injection/crlf/CrlfLogInjectionDetector.java;988b906527453815d41bd4fbe29f1fd94f4d5bbc231372b7c1904efff31339e1:plugin/src/main/java/com/h3xstream/findsecbugs/injection/http/HttpParameterPollutionDetector.java;e275fb5b57acbee1826f166c1f3c93017e7b69fa1bbed148833920609c451bb6:plugin/src/main/java/com/h3xstream/findsecbugs/injection/redirect/RedirectionSource.java;07aa37242dcc6524721c7430a1034ce01bda03d10dd5114e39ec25030fedf824:plugin/src/main/java/com/h3xstream/findsecbugs/injection/script/OgnlInjectionDetector.java;8f3b99e8d3d987d232a64ea3e74634c86528589d013b0e27286a4935b8d459ea:plugin/src/main/java/com/h3xstream/findsecbugs/injection/script/ScriptInjectionDetector.java;67fed5fadc7e2c3e62b9976084d8226eaf75fdb5fe9eda5a07847142dd76c492:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/AndroidSqlInjectionDetector.java;ac49d4e9aeb9af5d5b0a118bf3c79813456930c021a1d48b5b583d1b1faf4b56:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/Taint.java;75b4228cb91686be57d5711ee18f3007cf43858299cd869593f12c3489bfa202:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintDataflowEngine.java</t>
+  </si>
+  <si>
+    <t>74075f9929404c48cceb7b96fe6ba97787eac2e21375975074ff7c2ce1ff814a:plugin/src/main/java/com/h3xstream/findsecbugs/taintanalysis/TaintClassConfig.java</t>
+  </si>
+  <si>
+    <t>139a90af5b2ed1cff69cd9467ac33bdaac541d9fb327038b394fc067c2bdd58d:findbugs-test-util/src/test/java/com/h3xstream/findbugs/test/service/FindBugsLauncher.java;86a98d1d08c1a1d65d1306ced755cee0b6ac7586be23add6c343b1859ce38d3b:plugin/src/main/java/com/h3xstream/findsecbugs/injection/InjectionDetector.java;4fd25ec24a682933b331833764b79a5b17f07fee17a93abcbe62e72457215b7b:plugin/src/main/java/com/h3xstream/findsecbugs/injection/InjectionPoint.java;b5bf07ac6c7ea1785ff7cc2c9e386555ceedfbf9e53c3c2e981c0d65a753193d:plugin/src/main/java/com/h3xstream/findsecbugs/injection/InjectionSource.java;93be5ab297e0cc6493d6ee11c55bd6ff35c5c080e6382c73a74905bb955608a7:plugin/src/main/java/com/h3xstream/findsecbugs/injection/ldap/JndiLdapInjectionSource.java;f6a6ffb1d473042a0a19c91de8604b3f0e38b429a0838db148830ecc1f68b6ef:plugin/src/main/java/com/h3xstream/findsecbugs/injection/ldap/LdapInjectionDetector.java;922cb0620f45082205cce72fdc7a93abdd11a7b404d0421d1c14287574b6ca63:plugin/src/main/java/com/h3xstream/findsecbugs/injection/ldap/UnboundIdLdapInjectionSource.java;35c388bd6f1065386f73618504956ce4a957ba6576e1c7f45381ea956debd7db:plugin/src/main/java/com/h3xstream/findsecbugs/injection/redirect/RedirectionSource.java;73ff0ac14682fa99c5861d8176e1b00b6685b08031bfcb9b4008449947ccddac:plugin/src/main/java/com/h3xstream/findsecbugs/injection/redirect/UnvalidatedRedirectDetector.java;06bae54cd86f5d04aa06b008d36169e5a79891cca234c9a5c03857893aeff258:plugin/src/main/java/com/h3xstream/findsecbugs/injection/script/ScriptEngineSource.java;a0942f5ca53a09de01428b60f3dc7ab5e00ffe87985a24eff560f31370077128:plugin/src/main/java/com/h3xstream/findsecbugs/injection/script/ScriptInjectionDetector.java;d2fc6dbbc90355e4d4d84fde9059218e1a3d3e4277e2e3879d123088ed2fcd4f:plugin/src/main/java/com/h3xstream/findsecbugs/injection/script/SpelSource.java;f882f60caa7ecab9fb17ad878db1ce00147e17bc42d7b156a000ec23a8a47fb8:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/HibernateInjectionSource.java;0844c95939dc4467d68a39197295bb200e3639b5556f4c591d3c9d417aea49c1:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/JdoInjectionSource.java;f67a9d93caf9ad5ff7ad14a94ff7ed8f5ab20d6db1c6e1d5d9f0297c3080eca1:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/JpaInjectionSource.java;8fe64f42fc86efa52152b4181bbecca5e3ec4dbc768c13b188707d8d09070f80:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/SqlInjectionDetector.java;c29e424b2563e92c0afaef3efa8b4e616765a8447a5ba32547b443fd70cd547b:plugin/src/main/resources/metadata/findbugs.xml;a1792e055edc9c4a0a532877e412e5a6f0c745b16ae7a187fe0f436d23fbdb4e:plugin/src/main/resources/metadata/messages.xml;a498ff8328b36af0f5a85be51af0aef37ba59bf962d453d9d4158fae375793f3:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/HibernateInjectionSourceTest.java;014149a0c0c49c244916e6522eb54f417dd7f82b89fc89edefbac91bb6b30799:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/JdoInjectionSourceFilterTest.java;293dc320319024ea25af094d814e598c1f73789ecdfcef0882796f32f59a5046:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/JdoInjectionSourceTest.java;aaf5b36d11b91ab84343581e98ef75b0a2e9dc4949d2b3aaacf8b034e2c17102:plugin/src/test/java/com/h3xstream/findsecbugs/injection/sql/JpaInjectionSourceTest.java</t>
+  </si>
+  <si>
+    <t>1f8abcfaf3c8e295025b66c64bd683af39d21f4914bef0194bdf2db478e3ba6c:pom.xml;d850bcffb78c892deadff6e6a6d1406e8baf7b133a0afe3fcc36c0b1f54953cf:src/main/java/com/h3xstream/findsecbugs/PredictableRandomDetector.java;98b5f406ea78b353d85d5c387513386805fef88bbd08f38f9a9d4053907e97ef:src/main/java/com/h3xstream/findsecbugs/ReDosDetector.java;f6996790614cea367c4246152ec162668601a9dc176f957fe4294faf61c3e799:src/main/java/com/h3xstream/findsecbugs/common/ByteCode.java;2e087d6a4d2ef5c6ef1e980e44059fe892dddc658960fcaa87610390fc24a870:src/main/java/com/h3xstream/findsecbugs/endpoint/CookieDetector.java;cde08df496d761ca45a3448837998192ddbebc30690618a9eea73d960d1f3443:src/main/java/com/h3xstream/findsecbugs/endpoint/ServletEndpointDetector.java;b77bc690711e150e06f9bcdfbe6ec4775a1070a25075d93e2d13639e112c8985:src/main/java/com/h3xstream/findsecbugs/sql/HibernateInjectionDetector.java;ed6cc9f1231c4f00ea8778948b75006e091e46a668120064a80f9034501d39d2:src/main/java/com/h3xstream/findsecbugs/sql/JdoInjectionDetector.java;64b631805a92f8bf24a7791212ae7d360f31120061a2c79d1d0ef0a0f552435b:src/main/java/com/h3xstream/findsecbugs/sql/JpaInjectionDetector.java;535080df93572f3ba1af2d24d4c90ace3629951dd2c5628fea646db66cc859b2:src/main/java/com/h3xstream/findsecbugs/sql/SqlInjectionDetector.java;553c2302b2b4ed7f9ea5dd14178de017a4ad0b6dda4884c459b92c01f28f0673:src/main/java/com/h3xstream/findsecbugs/xpath/package-info.java;566ad1a80220026d05099562645ce968ff0e7c36cde22634332605bb34cc3eff:src/main/resources/metadata/META-INF/MANIFEST.MF;d3e7b2578e8ad1b90f7f3a2806f8168c4a468a678b2527fce1f52f7897081e7a:src/main/resources/metadata/findbugs.xml;9f07564589acacabe8b4b6a9001b161fb6122ad2957dbc8387018fe942abadfc:src/main/resources/metadata/messages.xml;6fea55a2a4d2c78e397419ab1f848a4360dc908a77d7442e25a81292bcf7be8a:src/main/script/styles.css;f478503ddc6be3a5f880097891eb28ce4e30a30f57e3c6beba06e71786db4942:src/test/java/com/h3xstream/findsecbugs/ReDosDetectorTest.java;a12c68f4244c955e883f57083206fa9ac7809104bd9a12554140a737c5b02f40:src/test/java/com/h3xstream/findsecbugs/endpoint/ServletEndpointDetectorTest.java;203d2a4d37424a332da5a2779c73360f94a564224c4b5066a24d47dc1c052a30:src/test/java/com/h3xstream/findsecbugs/endpoint/SpringMvcEndpointDetectorTest.java;f51376a3dd17fa7f544f750d7ec229ff7fc0dc231e67afa6ee65a4517480610d:src/test/java/com/h3xstream/findsecbugs/sql/HibernateInjectionDetectorTest.java;15a1aac72adb53a6f9d0d94c44546e22cc0eeaa881ae100b3c59430fbe19874b:src/test/java/com/h3xstream/testng/VerboseTestListener.java;e6afb2575ba2656529ec35edf0202ef67e7aaddcdff505af623654b1de51bc3f:src/test/java/edu/umd/cs/findbugs/test/DummyProgress.java;674a82be1428e9231604572925f31cba91db5f7e55053abe6a237a272068f077:src/test/java/edu/umd/cs/findbugs/test/EasyBugReporter.java;86adb8462bd54c3bfc44c8384393c48631c8e6ac539ae1cf896f371dde1432c5:src/test/java/edu/umd/cs/findbugs/test/matcher/BugInstanceMatcher.java;816dacf990d4548f488233d5b56301cc5c0b94977aa67eaa652de15846285cc7:src/test/java/edu/umd/cs/findbugs/test/matcher/BugInstanceMatcherBuilder.java;cd28edffd02ca2d1cb748d8ecb3e71c454caa548fcaa6833e082727542e7f95c:src/test/java/edu/umd/cs/findbugs/test/package-info.java;f8d396f34638b8cb8fc73bfac1dbdef563feed5a4eb01c22a27bd714e9e815da:src/test/java/testcode/BasicServlet.java;687658ff8bb1965c982db415773fe45bd1fe93abad004d030aeb021871806afe:src/test/java/testcode/InsecureRandom.java;b29208848fcec8fc2ce8e0e4112c8524807d2fb11785f9328457fdb798c055b4:src/test/java/testcode/sqli/HibernateSql.java;7790fa6807f40f0ab5f6395d0f1399f805c93e7f39edd229b3aa14cb709907a3:src/test/java/testcode/sqli/JdoSql.java;8ad25161f63e05ade4f1c52fe9717e1ab34068aa8c4b537c0d2e0abca11fdc63:src/test/java/testcode/sqli/JpaSql.java;d84d9cf00f1ef6df0d1f117feb105aa0fd03e6e9d12dbcbfac960a248ff26ada:src/test/java/testcode/sqli/TestEntity.java;915aacdd6efa4d4783b34a4c175e153d0a89e48d4d2b1657ce1390c0c7ea9f81:src/test/java/testcode/xpath/data.xml;6dc3bbd850ff87ddf7497fb56db8df7dd2ffe136ba43bdb5f75c295b98a3ec04:src/test/resources/logback-test.xml</t>
+  </si>
+  <si>
+    <t>db4b0641edbd8fb3cdd5c1d701abb438c8ea631c8775dee175fa0ff0db35ee07:plugin-deps/pom.xml;bc4926a561812b690615b25fd3f9b2902d7cd140853b3fefccb344b0cc5d856e:plugin-deps/src/main/java/android/content/BroadcastReceiver.java;e761ab198335be2708c32f0d201e6114751b4c92ec4e361f4059e7b933fc44e2:plugin-deps/src/main/java/android/content/Context.java;0c6e743d1d337579023b9bdef9af95b0c5029c4cb37447ce9e6185c786cae547:plugin-deps/src/main/java/android/content/ContextWrapper.java;200da7fbed76fd1ff279a490fa8ebc21670f3080dd76e8a0aa960e1650efbdf2:plugin-deps/src/main/java/android/content/Intent.java;73c7a0e8015b9dafa9e4971df96451bae28e78c48464cd18116a2297e590956e:plugin-deps/src/main/java/android/os/Handler.java;866e9538c66b79e00482bd875870a94b1189fb11f50aa04ed6279d043a057073:plugin-deps/src/main/java/android/os/UserHandle.java;8802ef3c96f14664db7db6107e928fc32c43b7213550851909addb7e2fd700a1:plugin-deps/src/main/java/android/webkit/GeolocationPermissions.java;5b80f8cc33f87daed728b35e3a1f86a66556e0133722aa4f32b7d166d1e079f9:plugin-deps/src/main/java/android/webkit/WebChromeClient.java;cfd36b85d8fd95b208ec00fc8a20af7fd320e849c919d46deccbed41f061324e:plugin-deps/src/main/java/android/webkit/WebView.java;5487debe3f6ddb08d46a7660c51ec7a2f86eba8972a0aad7c308a40f1bf54fa6:plugin-deps/src/main/java/android/webkit/WebViewClient.java;8591dba276877c648a73658af97f44c993a70d9aead9ac7135690843fd17a144:plugin/pom.xml;1d8db62a64c3bf9d88fa8f949cfe0498b3a83961847cda187014a61ac6019b21:plugin/src/main/java/com/h3xstream/findsecbugs/CommandInjectionDetector.java;371d913806f093a5ce9b14ceddce926987fcea2a2d9d558ac78c47e01fd71504:plugin/src/main/java/com/h3xstream/findsecbugs/PathTraversalDetector.java;609ff484b1598fa3fd064022686495857289fb9e0b2292834cfb8ed5149e69b0:plugin/src/main/java/com/h3xstream/findsecbugs/ReDosDetector.java;065f3239b312ebb2dd7254947b08cf2d9aa5a37b5a3d8e5d48831e44ead538f1:plugin/src/main/java/com/h3xstream/findsecbugs/android/BroadcastDetector.java;35e72c2a467bfd3827ca369c817fa2a7c2da774af75a1ae817606056a4d58364:plugin/src/main/java/com/h3xstream/findsecbugs/android/ExternalFileAccessDetector.java;4ed49e24689fef949f292155e1315c671601ba627676d58384793de643d4e109:plugin/src/main/java/com/h3xstream/findsecbugs/android/GeolocationDetector.java;1b544c97572db2688d570ff5b5b2d3c75ef5f8e9603bd0296d270110aac8d9b9:plugin/src/main/java/com/h3xstream/findsecbugs/android/WorldWritableDetector.java;bf6203b3a7e4219c90fe7fd7dbc415ca94605777f9da8e6cc3e8b17e155151cd:plugin/src/main/java/com/h3xstream/findsecbugs/common/StackUtils.java;219ed3c0a65a09c2dd29b16b3a207e4b28f5d2d3cc2abd9cb2420c3bc234cd8b:plugin/src/main/java/com/h3xstream/findsecbugs/crypto/CipherWithNoIntegrityDetector.java;3faa5139e3c15b14f72440a95bc2de0d5983648b21ffc71e8eb9048bbb516280:plugin/src/main/java/com/h3xstream/findsecbugs/crypto/DesUsageDetector.java;a1771f0170c46fbaa967ac9c3e895034051b8ca2b8ea041a6e84f17676a95d6b:plugin/src/main/java/com/h3xstream/findsecbugs/crypto/RsaNoPaddingDetector.java;5585cf6031736875f8d43c343a6522dc8e23ee47562708b8a466e3f7a0c5a272:plugin/src/main/java/com/h3xstream/findsecbugs/injection/custom/CustomInjectionDetector.java;2c37ef4bdddb008e4973f3a6e7de80afd79350c5e0671f8ca48202c0eb1bf926:plugin/src/main/java/com/h3xstream/findsecbugs/injection/custom/CustomInjectionSource.java;2976a4559edb6b81056d9dd2344114070994bced2042cfd69dd3e20e52e1d1f9:plugin/src/main/java/com/h3xstream/findsecbugs/injection/sql/SqlInjectionDetector.java;b6af5ce1b2106c5cb7c35fcb8662abc078d25830a4b98a7e9b431afadb30c90a:plugin/src/main/java/com/h3xstream/findsecbugs/password/JndiCredentialsDetector.java;026a0971b803c3460c1953de420e27b7112c343dc58832d19c919279a314480e:plugin/src/main/java/com/h3xstream/findsecbugs/xpath/XPathInjectionApacheXPathApiDetector.java;fabed055369d0b2754d8b209f773aaf3a88b359f0f03a4134b4872edd5c027f3:plugin/src/main/java/com/h3xstream/findsecbugs/xpath/XPathInjectionJavaxDetector.java;54828956152169a0f4b6ac833f6876259338ed3b0c696d50eaa5663efaf46bad:plugin/src/main/resources/metadata/findbugs.xml;e740f9011ce6437ffb35a4ae396e280cb674f619590baa4a5ce1e29ca0bde7c9:plugin/src/main/resources/metadata/messages.xml;4f8971fc319299c76a2e7b1d4822888761c350553c1170ece3b23fc6eca8a54a:plugin/src/test/java/com/h3xstream/findsecbugs/android/BroadcastDetectorTest.java;3a3fedf44afad3ea16c7264ef2805d772503349cbde7a4cb82b22d6e9bdd1c00:plugin/src/test/java/com/h3xstream/findsecbugs/android/ExternalFileAccessDetectorTest.java;29f315e4bf259ccb27db677b80dff34d1829988fe1aa0300dde2ac512dd3585d:plugin/src/test/java/com/h3xstream/findsecbugs/android/GeolocationDetectorTest.java;9bb5e119fba52274ee77c119322f787c21981f4e20044f502835e1970b61da7f:plugin/src/test/java/com/h3xstream/findsecbugs/android/WorldWritableDetectorTest.java;153828a63de00bfa7f6f611e486c97b5295099b903a3991a59e0fe041eabf6b4:plugin/src/test/java/com/h3xstream/findsecbugs/injection/custom/CustomInjectionDetectorTest.java;12e8cf0aeb454686903ae243f36b0b7c50261904bb65f6a1bada33a90a9d3496:plugin/src/test/java/testcode/android/BroadcastIntentActivity.java;9865950ba25eb0a8738e599ea5c786ec03f1e2586720164d83826f997bcb7201:plugin/src/test/java/testcode/android/ExternalFileAccessActivity.java;768c4da6e865a8b179482edd425be3770578d8b6bc524490cefabf44b1bf3c66:plugin/src/test/java/testcode/android/GeolocationActivity.java;b804e0997e01d230f1c50dd56e83e0805b2129e5648ecd9225e5cd604a4330d4:plugin/src/test/java/testcode/android/WorldWritableActivity.java;54c3f8ba7fca50813c9fb6b5168a96cc43197f509cd9ad05f670947cbe94c489:plugin/src/test/java/testcode/sqli/CustomInjection.java;5df93df055d90304d2e404a546a856c1f09f61ffbd50d55aa45892ef390e80b3:plugin/src/test/resources/com/h3xstream/findsecbugs/injection/custom/CustomInjectionSource.properties;a7acdb15cff97446534f1985498ddaff66c448830826e8d714759f83ed3801b1:pom.xml;365ebe4c318392a249ca60b555536a0a2e1b026988344aeaa59eeb104d2dac5c:website/pom.xml</t>
+  </si>
+  <si>
+    <t>bc5c2d14f043ee0226c59b3a86ab1d0cc078f5126a99b9db99ad600b4554d8f9:collect_app/src/main/java/org/odk/collect/android/provider/InstanceProvider.java</t>
+  </si>
+  <si>
+    <t>088e9b6a5dc8b9dd27c720297d82ba203ac15b031d3746c88899bbfe6f391923:src/info/guardianproject/otr/app/im/app/AccountActivity.java;cb8f53b60aa8e49df10d8f6551e1440e7e7e8021df2ecced2f153ac38826b664:src/info/guardianproject/otr/app/im/app/ContactsPickerActivity.java;82dc6e4d183f7bdb1bfd8548f94ca0905b33a9d3a6588aa6bbe4958fddb16c8b:src/info/guardianproject/otr/app/im/app/SignoutActivity.java;ab43a7540ca5e163029897ba0e70a50deb505ffb1eaa911928e7064728f5257e:src/info/guardianproject/otr/app/im/provider/Imps.java;4926ba1261c889c9ed929bef31286ccc33b764401940f453f58d7460ad42802d:src/info/guardianproject/otr/app/im/service/ChatSessionAdapter.java</t>
+  </si>
+  <si>
+    <t>a1fd7e23b45cc72258151d544d1ddc996945d7e8e1dbcb9d842be2148a6f6a4f:config.xml;19e520cfe94f9232414922848fbd2174e67da0c70309092e72e5b1880f613f57:src/main/resources/ftl/sh.ftl;4140ed3686cdeefffe71ea6c349e7e3e26f009cb64b5f2bd5e7ef75f93cb9f2a:src/main/stories/authentication.story;15a84e75497dd5e1e61c60eb4eb8cff364e6a96b46dbb9d09223a055181b68a1:src/main/stories/authorisation.story;75982addfcd608c6fbf6c717d74cbc07cb7f8adf340421c73202ffea4c4d494d:src/main/stories/automated_scanning.story;8cb43b404c62096aa8a95be54b8e92256c6420f6c0212495abdf139d72e3159f:src/main/stories/configuration.story;9ef20b4bafd2895f0b34d02b4346776debf878134d432fc329f6c1e19df64301:src/main/stories/password_recovery.story;c148aae4ec1472052f7453261b59fb35ca690d0aee907bd7e32632a55499c7b0:src/main/stories/session_management.story</t>
+  </si>
+  <si>
+    <t>c083a0ecbd02fe2986a55587d3e3906dd2f25f133668b2a3dd83daa4d438a676:jeecg-module-system/jeecg-system-biz/src/main/java/org/jeecg/modules/system/mapper/xml/SysUserMapper.xml;b37424999efc5cc19cc2be855eb7a044e1d7f565154e133770d3c54ae0f9652c:jeecg-module-system/jeecg-system-biz/src/main/java/org/jeecg/modules/system/service/impl/SysUserServiceImpl.java</t>
+  </si>
+  <si>
+    <t>8d9447da5eaff16131ecfa5103bb5e104a844cb52f4da51f8d0761d9e085903c:src/main/java/org/joychou/controller/FileUpload.java;3379a033947e194d8b483edeb2cb98ff6e7ae471b9193011b4a4b253fb49afca:src/main/java/org/joychou/controller/SQLI.java;3e6ff4d57365f64eac2eea1e62a542e9e5b26380e79d2f9ad8456092c989aaaf:src/main/java/org/joychou/controller/SSRF.java;50e569decf54c5c20ee927f2374a0e6232b17bef7fb08a38dd5221108cfc5183:src/main/java/org/joychou/controller/URLWhiteList.java;cc5b62d936e3fd1a1ace83fc50c4b04ef1ab293a7c058099791be2801259717e:src/main/java/org/joychou/dao/User.java;a2902918179b4c799f73d671c4ed6c348cc4fc6959374d9df68b2a858f62e04e:src/main/java/org/joychou/mapper/UserMapper.java;52a126e6c3d81153650aa44f3773953f9056c58c7e5143908b9761667549cc02:src/main/java/org/joychou/security/DisableSpringSecurityFirewall.java;e42d04061e2b4104a0b434ad00072159423133f4949e495c6dd5b6460296b5a3:src/main/java/org/joychou/security/SecurityUtil.java;fa4e0f0532f7e547b12897ae7163ae4b450ae7c03b52bddfb00dceae08dc7138:src/main/resources/application.properties;d8333359f9ca05063fddd8594c00e87e4bab7de6a13c9db829a82e56c8d3cb63:src/main/resources/mapper/UserMapper.xml;e0c3327f2a36e2736b9456654a88c4f0e85ef6bea9021cff7148de0ce09f633a:src/main/resources/templates/index.html;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:src/main/resources/templates/uploadStatus.html</t>
+  </si>
+  <si>
+    <t>7e33efc7a8f8a366ed30b3ccd6f8190ea13ad21819ac9227ffff21c0a1f2d4ea:src/com/mysql/jdbc/Connection.java;f73c34ce93e35d49ed8717d065943549b0c5b473999cb7c771f6059fff280356:src/com/mysql/jdbc/ConnectionImpl.java</t>
+  </si>
+  <si>
+    <t>10ba7d1ff162955cf32404fca211247d36cd3f7b0c645dfd78a21ce131f8b0c5:presto-cli/src/main/java/io/prestosql/cli/CubeConsole.java</t>
+  </si>
+  <si>
+    <t>b9807ae347332a228cd47861c4b770f59bf654c0436e323a4f0bf5d3afed42e7:presto-cli/src/main/java/io/prestosql/cli/CubeConsole.java</t>
+  </si>
+  <si>
+    <t>824cb8ef6be4a27bf21f7b43ba82b69494e7ca8ae0fd07477891c5ac97b15eac:api/src/main/java/org/openmrs/util/databasechange/MigrateAllergiesChangeSet.java</t>
+  </si>
+  <si>
+    <t>442a26d03b656ae917fcffe37345df956931b1bf3826643ab4d08eb3aff6d9cf:msgcntr/messageforums-component-impl/src/java/org/sakaiproject/component/app/messageforums/SynopticMsgcntrManagerImpl.java;f7c2c75dd41d4240079abf9d2a511d4be59f953d27ff7dfc58977287ce946fac:msgcntr/messageforums-component-impl/src/java/org/sakaiproject/component/app/messageforums/jobs/UpdateSynopticMessageCounts.java</t>
+  </si>
+  <si>
+    <t>1f7f0c86607d0efc9cd3a52dd923018dbacd9d7a5b23c35a250f000b4aeeff2d:cachecloud-web/src/main/resources/mapper/AppDataMigrateStatusDao.xml;7d36a4c5e0b10301c62903a5064426e689edbd3a718e057c630f2d9778d0ea22:cachecloud-web/src/main/resources/mapper/MachineDao.xml;09011d9d96924b2b155489cb47f0e8d803fabb9270ebebc9cf6bfaf4e6f2c9d6:cachecloud-web/src/main/resources/mapper/MachineStatsDao.xml</t>
+  </si>
+  <si>
+    <t>f80c847082dae3a47d9fb7c755aea0349afe1d810350b8fbdfabd3cbc3262f91:jni/net_sqlcipher_database_SQLiteDatabase.cpp;d6992c6cf2503373af3c61018975413d9662547f5e667bd552b6d304161ed6b9:src/net/sqlcipher/database/SQLiteDatabase.java</t>
+  </si>
+  <si>
+    <t>b8cca07d07f021697bcd843030480fdf0a8056e4be5abf46be6368f64e1d7563:frameworks/Python/web2py/app/standard/modules/database.py</t>
+  </si>
+  <si>
+    <t>216d03a41decca8298b9edb10da50cd4bfc500f5faec175e40b8a9fc15ae5b32:frameworks/PHP/peachpie/Benchmarks.sln;cdbd2a7ba969a3855984c81696646b37539dbdcafb83175e45583700cd82f3a1:frameworks/PHP/peachpie/Server/Program.cs;aa9553d989d04d4d27df9774cee22ea53b481df003347544cc4d2509153b896f:frameworks/PHP/peachpie/Website/Website.msbuildproj;e4bf30e7e301bc2cbb308937c837e9acf9fc2b870a0fd632eb68a30093f81828:frameworks/PHP/peachpie/Website/db.php;d5558cd419c8d46bdc958064cb97f963d1ea793866414c025906ec15033512ed:frameworks/PHP/peachpie/Website/dbraw.php;02004e74f86c596dc44ad84604d0f3b89efb8cb15d64ccb4cf4e9dea5050f74d:frameworks/PHP/peachpie/Website/query.php;84f49193ee47d1603dcbbe3868fc52ccfed80ffeed9a09be82116aa3e5076ad6:frameworks/PHP/peachpie/benchmark_config.json;ba23e6f653eb446cfaea1dcc9d67dc439682753b4ac634bca78782e9cd90a807:frameworks/PHP/peachpie/global.json</t>
+  </si>
+  <si>
+    <t>d0fb731a4d0865316d9be1f410914363f908146c58d22bd1861ad88dfe9c1e7d:plugin/trino-sqlserver/src/test/java/io/trino/plugin/sqlserver/TestSqlServerConnectorTest.java</t>
+  </si>
+  <si>
+    <t>e6ce3bddbe99ab4f860047dbe9321fe78c96b1e81e53c2eb1916c58a31927622:src/test/java/org/jongo/ParameterBinderTest.java;</t>
+  </si>
+  <si>
+    <t>59693cd2b85d3eaad86352991dba06abe96c85ec69df4a4b71862d26b1bfeee2:plugins/IntelliLang/java-support/resources/javaInjections.xml;</t>
+  </si>
+  <si>
+    <t>a293af8d7aed9e5a515f66e9f2f38a817559ec7c97fe1d4a0546c21b69b419f9:backend/src/main/java/io/dataease/commons/wrapper/XssAndSqlHttpServletRequestWrapper.java;</t>
+  </si>
+  <si>
+    <t>4ffa444ce18a8b3cd5d7d6be06b73792adf5312d5da4b2b230458b7c1f396e50:findsecbugs-plugin/src/main/resources/metadata/messages.xml;</t>
+  </si>
+  <si>
+    <t>cb8f53b60aa8e49df10d8f6551e1440e7e7e8021df2ecced2f153ac38826b664:src/info/guardianproject/otr/app/im/app/ContactsPickerActivity.java;</t>
+  </si>
+  <si>
+    <t>52b2f105bf7fc1672c339678c61e2ec2b24669b930da7c0f44a2da7ecda91355:presto-cli/src/main/java/io/prestosql/cli/CubeConsole.java;</t>
+  </si>
+  <si>
+    <t>c38357298e61a69489aadfda5fcf20c319b44fa0dbf0634cae908ddb8c36295f:presto-raptor/src/main/java/com/facebook/presto/raptor/systemtables/ShardMetadataRecordCursor.java;</t>
+  </si>
+  <si>
+    <t>d3f67a9e308dcb80696ef9aa4059644158d40896b8bfbacd22e822ecf65a092b:src/test/java/org/jongo/ParameterBinderTest.java;</t>
+  </si>
+  <si>
+    <t>48671f1c7bd393015e9d3e0648d74bd802136bf6c01bedb069fe20c608bfa2fe:plugins/IntelliLang/java-support/resources/javaInjections.xml;</t>
+  </si>
+  <si>
+    <t>5a2ce7ea701952779b6c5d20b4544a4e5ed1ecb6674fc5960ed4022043ee4111:backend/src/main/java/io/dataease/commons/wrapper/XssAndSqlHttpServletRequestWrapper.java;</t>
+  </si>
+  <si>
+    <t>4070c39e8af1d96f20f869a39dd9e45f06345277ca995a66932334c9c619bab6:findsecbugs-plugin/src/main/resources/metadata/messages.xml;</t>
+  </si>
+  <si>
+    <t>90e26815341e67d52c879e6e4c46f9827f73cff062356812370c6dd4bcb28741:src/info/guardianproject/otr/app/im/app/ContactsPickerActivity.java;</t>
+  </si>
+  <si>
+    <t>b9807ae347332a228cd47861c4b770f59bf654c0436e323a4f0bf5d3afed42e7:presto-cli/src/main/java/io/prestosql/cli/CubeConsole.java;</t>
+  </si>
+  <si>
+    <t>665bf9dac9c8591f2d50eb8f38397c4a1aaac97df0737032779302544cdd67af:presto-raptor/src/main/java/com/facebook/presto/raptor/systemtables/ShardMetadataRecordCursor.java;</t>
+  </si>
+  <si>
+    <t>file_with_defect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_with_no_defect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cb3d28d91e7d4b81642a3940f98e48e3fb08dc16cbc6858b80bdbe9c5d6728c3:packages/WAPPushManager/src/com/android/smspush/WapPushManager.java;5cdcfb6fdc40ca11f03eaee4ce51e57eb6b9b5fbb281d76cf49ac440fa7bff0a:packages/WAPPushManager/tests/src/com/android/smspush/unitTests/WapPushTest.java</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>878312b77e297275e0f63d5e901a2057b387cd4f96cff56c2bc916e9e0fa2687:packages/WAPPushManager/src/com/android/smspush/WapPushManager.java;4e0cf80fb7cecbba8b055d67b1f143dead125045754fc7c8eb42f3dde1b32613:packages/WAPPushManager/tests/src/com/android/smspush/unitTests/WapPushTest.java</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2024,29 +2317,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:AR86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="I46" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.08203125" customWidth="1"/>
     <col min="3" max="3" width="95.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="10" width="55.58203125" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -2063,9 +2360,15 @@
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2073,7 +2376,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D2" s="5">
         <v>10149</v>
@@ -2090,9 +2393,17 @@
       <c r="H2" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J2" t="s">
+        <v>361</v>
+      </c>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2100,7 +2411,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D3" s="5">
         <v>10149</v>
@@ -2109,17 +2420,25 @@
         <v>37</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J3" t="s">
+        <v>362</v>
+      </c>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M3"/>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2127,7 +2446,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5">
         <v>10149</v>
@@ -2136,17 +2455,25 @@
         <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J4" t="s">
+        <v>363</v>
+      </c>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2154,7 +2481,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5">
         <v>10149</v>
@@ -2163,17 +2490,25 @@
         <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J5" t="s">
+        <v>362</v>
+      </c>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2181,7 +2516,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5">
         <v>10149</v>
@@ -2190,17 +2525,25 @@
         <v>37</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I6" t="s">
+        <v>318</v>
+      </c>
+      <c r="J6" t="s">
+        <v>361</v>
+      </c>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2208,7 +2551,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5">
         <v>10149</v>
@@ -2217,17 +2560,25 @@
         <v>37</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I7" t="s">
+        <v>319</v>
+      </c>
+      <c r="J7" t="s">
+        <v>362</v>
+      </c>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M7"/>
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2235,7 +2586,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="5">
         <v>10149</v>
@@ -2244,17 +2595,25 @@
         <v>37</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I8" t="s">
+        <v>318</v>
+      </c>
+      <c r="J8" t="s">
+        <v>361</v>
+      </c>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M8"/>
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2262,7 +2621,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D9" s="5">
         <v>10149</v>
@@ -2271,17 +2630,25 @@
         <v>37</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I9" t="s">
+        <v>321</v>
+      </c>
+      <c r="J9" t="s">
+        <v>364</v>
+      </c>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2289,7 +2656,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5">
         <v>10149</v>
@@ -2304,11 +2671,19 @@
         <v>62</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>318</v>
+      </c>
+      <c r="J10" t="s">
+        <v>361</v>
       </c>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M10"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2333,9 +2708,17 @@
       <c r="H11" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I11" t="s">
+        <v>321</v>
+      </c>
+      <c r="J11" t="s">
+        <v>364</v>
+      </c>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M11"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2343,7 +2726,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="D12" s="5">
         <v>10149</v>
@@ -2352,17 +2735,25 @@
         <v>37</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J12" t="s">
+        <v>361</v>
+      </c>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M12"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2370,7 +2761,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="D13" s="5">
         <v>10149</v>
@@ -2387,9 +2778,17 @@
       <c r="H13" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I13" t="s">
+        <v>321</v>
+      </c>
+      <c r="J13" t="s">
+        <v>364</v>
+      </c>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2397,7 +2796,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>71</v>
+        <v>288</v>
       </c>
       <c r="D14" s="5">
         <v>10149</v>
@@ -2406,17 +2805,25 @@
         <v>37</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I14" t="s">
+        <v>318</v>
+      </c>
+      <c r="J14" t="s">
+        <v>361</v>
+      </c>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M14"/>
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2424,7 +2831,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>292</v>
+        <v>73</v>
       </c>
       <c r="D15" s="5">
         <v>10149</v>
@@ -2441,9 +2848,17 @@
       <c r="H15" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I15" t="s">
+        <v>321</v>
+      </c>
+      <c r="J15" t="s">
+        <v>364</v>
+      </c>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M15"/>
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2451,7 +2866,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="D16" s="5">
         <v>10149</v>
@@ -2460,17 +2875,25 @@
         <v>37</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I16" t="s">
+        <v>320</v>
+      </c>
+      <c r="J16" t="s">
+        <v>363</v>
+      </c>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2478,7 +2901,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D17" s="5">
         <v>10149</v>
@@ -2487,17 +2910,25 @@
         <v>37</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J17" t="s">
+        <v>362</v>
+      </c>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2505,7 +2936,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="D18" s="5">
         <v>10149</v>
@@ -2522,9 +2953,17 @@
       <c r="H18" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I18" t="s">
+        <v>318</v>
+      </c>
+      <c r="J18" t="s">
+        <v>361</v>
+      </c>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2532,7 +2971,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="D19" s="5">
         <v>10149</v>
@@ -2541,17 +2980,25 @@
         <v>37</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I19" t="s">
+        <v>321</v>
+      </c>
+      <c r="J19" t="s">
+        <v>364</v>
+      </c>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2559,7 +3006,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>295</v>
+        <v>88</v>
       </c>
       <c r="D20" s="5">
         <v>10149</v>
@@ -2568,71 +3015,95 @@
         <v>37</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I20" t="s">
+        <v>318</v>
+      </c>
+      <c r="J20" t="s">
+        <v>361</v>
+      </c>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>91</v>
+        <v>311</v>
       </c>
       <c r="D21" s="5">
-        <v>10149</v>
+        <v>2086</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>322</v>
+      </c>
+      <c r="J21" t="s">
+        <v>365</v>
       </c>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="D22" s="5">
-        <v>2086</v>
+        <v>682</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>323</v>
+      </c>
+      <c r="J22" t="s">
+        <v>366</v>
       </c>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2640,7 +3111,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="D23" s="5">
         <v>682</v>
@@ -2649,1733 +3120,2224 @@
         <v>29</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>324</v>
+      </c>
+      <c r="J23" t="s">
+        <v>367</v>
       </c>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="D24" s="5">
-        <v>682</v>
+        <v>572</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>402</v>
+      </c>
+      <c r="J24" t="s">
+        <v>409</v>
       </c>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="D25" s="5">
-        <v>572</v>
+        <v>625</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>26</v>
+        <v>245</v>
+      </c>
+      <c r="I25" t="s">
+        <v>325</v>
+      </c>
+      <c r="J25" t="s">
+        <v>368</v>
       </c>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D26" s="5">
-        <v>625</v>
+        <v>2974</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>248</v>
+        <v>134</v>
+      </c>
+      <c r="I26" t="s">
+        <v>326</v>
+      </c>
+      <c r="J26" t="s">
+        <v>369</v>
       </c>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>317</v>
+        <v>223</v>
       </c>
       <c r="D27" s="5">
-        <v>2974</v>
+        <v>671</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>137</v>
+        <v>227</v>
+      </c>
+      <c r="I27" t="s">
+        <v>327</v>
+      </c>
+      <c r="J27" t="s">
+        <v>370</v>
       </c>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D28" s="5">
         <v>671</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="I28" t="s">
+        <v>403</v>
+      </c>
+      <c r="J28" t="s">
+        <v>410</v>
       </c>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M28"/>
+      <c r="P28"/>
+    </row>
+    <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D29" s="5">
         <v>671</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="I29" t="s">
+        <v>328</v>
+      </c>
+      <c r="J29" t="s">
+        <v>371</v>
       </c>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>235</v>
+        <v>97</v>
       </c>
       <c r="D30" s="5">
-        <v>671</v>
+        <v>621</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>237</v>
+        <v>39</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>238</v>
+        <v>40</v>
+      </c>
+      <c r="I30" t="s">
+        <v>318</v>
+      </c>
+      <c r="J30" t="s">
+        <v>361</v>
       </c>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D31" s="5">
         <v>621</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="I31" t="s">
+        <v>319</v>
+      </c>
+      <c r="J31" t="s">
+        <v>362</v>
+      </c>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>102</v>
+        <v>292</v>
       </c>
       <c r="D32" s="5">
         <v>621</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>319</v>
+      </c>
+      <c r="J32" t="s">
+        <v>362</v>
+      </c>
+      <c r="M32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="D33" s="5">
         <v>621</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>318</v>
+      </c>
+      <c r="J33" t="s">
+        <v>361</v>
+      </c>
+      <c r="M33"/>
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D34" s="5">
         <v>621</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>319</v>
+      </c>
+      <c r="J34" t="s">
+        <v>362</v>
+      </c>
+      <c r="M34"/>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c r="D35" s="5">
         <v>621</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>318</v>
+      </c>
+      <c r="J35" t="s">
+        <v>361</v>
+      </c>
+      <c r="M35"/>
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D36" s="5">
         <v>621</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>321</v>
+      </c>
+      <c r="J36" t="s">
+        <v>364</v>
+      </c>
+      <c r="M36"/>
+      <c r="P36"/>
+    </row>
+    <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D37" s="5">
         <v>621</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" t="s">
+        <v>361</v>
+      </c>
+      <c r="M37"/>
+      <c r="P37"/>
+    </row>
+    <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="D38" s="5">
         <v>621</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" t="s">
+        <v>364</v>
+      </c>
+      <c r="M38"/>
+      <c r="P38"/>
+    </row>
+    <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>301</v>
+        <v>102</v>
       </c>
       <c r="D39" s="5">
         <v>621</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>361</v>
+      </c>
+      <c r="M39"/>
+      <c r="P39"/>
+    </row>
+    <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="5">
         <v>621</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>321</v>
+      </c>
+      <c r="J40" t="s">
+        <v>364</v>
+      </c>
+      <c r="M40"/>
+      <c r="P40"/>
+    </row>
+    <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="D41" s="5">
         <v>621</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>318</v>
+      </c>
+      <c r="J41" t="s">
+        <v>361</v>
+      </c>
+      <c r="M41"/>
+      <c r="P41"/>
+    </row>
+    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D42" s="5">
         <v>621</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>321</v>
+      </c>
+      <c r="J42" t="s">
+        <v>364</v>
+      </c>
+      <c r="M42"/>
+      <c r="P42"/>
+    </row>
+    <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="D43" s="5">
         <v>621</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>320</v>
+      </c>
+      <c r="J43" t="s">
+        <v>363</v>
+      </c>
+      <c r="M43"/>
+      <c r="P43"/>
+    </row>
+    <row r="44" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>107</v>
+        <v>298</v>
       </c>
       <c r="D44" s="5">
         <v>621</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>319</v>
+      </c>
+      <c r="J44" t="s">
+        <v>362</v>
+      </c>
+      <c r="M44"/>
+      <c r="P44"/>
+    </row>
+    <row r="45" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" s="5">
         <v>621</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>318</v>
+      </c>
+      <c r="J45" t="s">
+        <v>361</v>
+      </c>
+      <c r="M45"/>
+      <c r="P45"/>
+    </row>
+    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D46" s="5">
         <v>621</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>418</v>
+      </c>
+      <c r="J46" t="s">
+        <v>419</v>
+      </c>
+      <c r="M46"/>
+      <c r="P46"/>
+    </row>
+    <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D47" s="5">
         <v>621</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="I47" t="s">
+        <v>329</v>
+      </c>
+      <c r="J47" t="s">
+        <v>372</v>
+      </c>
+      <c r="M47"/>
+      <c r="P47"/>
+    </row>
+    <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>304</v>
+        <v>108</v>
       </c>
       <c r="D48" s="5">
         <v>621</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>318</v>
+      </c>
+      <c r="J48" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48"/>
+      <c r="P48"/>
+    </row>
+    <row r="49" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="D49" s="5">
-        <v>621</v>
+        <v>1289</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="I49" t="s">
+        <v>330</v>
+      </c>
+      <c r="J49" t="s">
+        <v>373</v>
+      </c>
+      <c r="M49"/>
+      <c r="P49"/>
+    </row>
+    <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>111</v>
+        <v>314</v>
       </c>
       <c r="D50" s="5">
-        <v>621</v>
+        <v>7866</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>92</v>
+        <v>262</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>93</v>
+        <v>263</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="I50" t="s">
+        <v>404</v>
+      </c>
+      <c r="J50" t="s">
+        <v>411</v>
+      </c>
+      <c r="M50"/>
+      <c r="P50"/>
+    </row>
+    <row r="51" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="D51" s="5">
-        <v>1289</v>
+        <v>6548</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>97</v>
+        <v>268</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="I51" t="s">
+        <v>331</v>
+      </c>
+      <c r="J51" t="s">
+        <v>374</v>
+      </c>
+      <c r="M51"/>
+      <c r="P51"/>
+    </row>
+    <row r="52" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="D52" s="5">
-        <v>7866</v>
+        <v>6548</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="I52" t="s">
+        <v>332</v>
+      </c>
+      <c r="J52" t="s">
+        <v>375</v>
+      </c>
+      <c r="M52"/>
+      <c r="P52"/>
+    </row>
+    <row r="53" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="D53" s="5">
-        <v>6548</v>
+        <v>1991</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>270</v>
+        <v>137</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="I53" t="s">
+        <v>333</v>
+      </c>
+      <c r="J53" t="s">
+        <v>376</v>
+      </c>
+      <c r="M53"/>
+      <c r="P53"/>
+    </row>
+    <row r="54" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="D54" s="5">
-        <v>6548</v>
+        <v>1991</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="I54" t="s">
+        <v>334</v>
+      </c>
+      <c r="J54" t="s">
+        <v>377</v>
+      </c>
+      <c r="M54"/>
+      <c r="P54"/>
+    </row>
+    <row r="55" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D55" s="5">
         <v>1991</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="I55" t="s">
+        <v>335</v>
+      </c>
+      <c r="J55" t="s">
+        <v>378</v>
+      </c>
+      <c r="M55"/>
+      <c r="P55"/>
+    </row>
+    <row r="56" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>307</v>
+        <v>146</v>
       </c>
       <c r="D56" s="5">
         <v>1991</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="I56" t="s">
+        <v>336</v>
+      </c>
+      <c r="J56" t="s">
+        <v>379</v>
+      </c>
+      <c r="M56"/>
+      <c r="P56"/>
+    </row>
+    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>308</v>
+        <v>150</v>
       </c>
       <c r="D57" s="5">
         <v>1991</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="I57" t="s">
+        <v>337</v>
+      </c>
+      <c r="J57" t="s">
+        <v>380</v>
+      </c>
+      <c r="M57"/>
+      <c r="P57"/>
+    </row>
+    <row r="58" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>149</v>
+        <v>304</v>
       </c>
       <c r="D58" s="5">
         <v>1991</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J58" t="s">
+        <v>412</v>
+      </c>
+      <c r="M58"/>
+      <c r="P58"/>
+    </row>
+    <row r="59" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D59" s="5">
         <v>1991</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="I59" t="s">
+        <v>338</v>
+      </c>
+      <c r="J59" t="s">
+        <v>381</v>
+      </c>
+      <c r="M59"/>
+      <c r="P59"/>
+    </row>
+    <row r="60" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>309</v>
+        <v>161</v>
       </c>
       <c r="D60" s="5">
         <v>1991</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="I60" t="s">
+        <v>339</v>
+      </c>
+      <c r="J60" t="s">
+        <v>382</v>
+      </c>
+      <c r="M60"/>
+      <c r="P60"/>
+    </row>
+    <row r="61" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D61" s="5">
         <v>1991</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="I61" t="s">
+        <v>340</v>
+      </c>
+      <c r="J61" t="s">
+        <v>383</v>
+      </c>
+      <c r="M61"/>
+      <c r="P61"/>
+    </row>
+    <row r="62" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D62" s="5">
         <v>1991</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="I62" t="s">
+        <v>341</v>
+      </c>
+      <c r="J62" t="s">
+        <v>384</v>
+      </c>
+      <c r="M62"/>
+      <c r="P62"/>
+    </row>
+    <row r="63" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D63" s="5">
         <v>1991</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I63" t="s">
+        <v>342</v>
+      </c>
+      <c r="J63" t="s">
+        <v>385</v>
+      </c>
+      <c r="M63"/>
+      <c r="P63"/>
+    </row>
+    <row r="64" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D64" s="5">
         <v>1991</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="I64" t="s">
+        <v>343</v>
+      </c>
+      <c r="J64" t="s">
+        <v>386</v>
+      </c>
+      <c r="M64"/>
+      <c r="P64"/>
+    </row>
+    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>176</v>
+        <v>306</v>
       </c>
       <c r="D65" s="5">
-        <v>1991</v>
+        <v>643</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="I65" t="s">
+        <v>344</v>
+      </c>
+      <c r="J65" t="s">
+        <v>387</v>
+      </c>
+      <c r="M65"/>
+      <c r="P65"/>
+    </row>
+    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D66" s="5">
-        <v>1991</v>
+        <v>1072</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="I66" t="s">
+        <v>345</v>
+      </c>
+      <c r="J66" t="s">
+        <v>388</v>
+      </c>
+      <c r="M66"/>
+      <c r="P66"/>
+    </row>
+    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D67" s="5">
-        <v>643</v>
+        <v>1072</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="I67" t="s">
+        <v>406</v>
+      </c>
+      <c r="J67" t="s">
+        <v>413</v>
+      </c>
+      <c r="M67"/>
+      <c r="P67"/>
+    </row>
+    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="D68" s="5">
-        <v>1072</v>
+        <v>543</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="I68" t="s">
+        <v>346</v>
+      </c>
+      <c r="J68" t="s">
+        <v>389</v>
+      </c>
+      <c r="M68"/>
+      <c r="P68"/>
+    </row>
+    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>310</v>
+        <v>125</v>
       </c>
       <c r="D69" s="5">
-        <v>1072</v>
+        <v>31826</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="I69" t="s">
+        <v>347</v>
+      </c>
+      <c r="J69" t="s">
+        <v>390</v>
+      </c>
+      <c r="M69"/>
+      <c r="P69"/>
+    </row>
+    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="D70" s="5">
-        <v>543</v>
+        <v>1769</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>115</v>
+        <v>203</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="I70" t="s">
+        <v>348</v>
+      </c>
+      <c r="J70" t="s">
+        <v>391</v>
+      </c>
+      <c r="M70"/>
+      <c r="P70"/>
+    </row>
+    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="D71" s="5">
-        <v>31826</v>
+        <v>697</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="I71" t="s">
+        <v>349</v>
+      </c>
+      <c r="J71" t="s">
+        <v>392</v>
+      </c>
+      <c r="M71"/>
+      <c r="P71"/>
+    </row>
+    <row r="72" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D72" s="5">
-        <v>1769</v>
+        <v>697</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="I72" t="s">
+        <v>350</v>
+      </c>
+      <c r="J72" t="s">
+        <v>414</v>
+      </c>
+      <c r="M72"/>
+      <c r="P72"/>
+    </row>
+    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="D73" s="5">
-        <v>697</v>
+        <v>523</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="I73" t="s">
+        <v>407</v>
+      </c>
+      <c r="J73" t="s">
+        <v>414</v>
+      </c>
+      <c r="M73"/>
+      <c r="P73"/>
+    </row>
+    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="D74" s="5">
-        <v>697</v>
+        <v>523</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="I74" t="s">
+        <v>351</v>
+      </c>
+      <c r="J74" t="s">
+        <v>353</v>
+      </c>
+      <c r="M74"/>
+      <c r="P74"/>
+    </row>
+    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>313</v>
+        <v>254</v>
       </c>
       <c r="D75" s="5">
         <v>523</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I75" t="s">
+        <v>352</v>
+      </c>
+      <c r="J75" t="s">
+        <v>393</v>
+      </c>
+      <c r="M75"/>
+      <c r="P75"/>
+    </row>
+    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="D76" s="5">
         <v>523</v>
       </c>
       <c r="E76" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I76" t="s">
+        <v>353</v>
+      </c>
+      <c r="J76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M76"/>
+      <c r="P76"/>
+    </row>
+    <row r="77" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="D77" s="5">
-        <v>523</v>
+        <v>1135</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="I77" t="s">
+        <v>354</v>
+      </c>
+      <c r="J77" t="s">
+        <v>395</v>
+      </c>
+      <c r="M77"/>
+      <c r="P77"/>
+    </row>
+    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="D78" s="5">
-        <v>523</v>
+        <v>877</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="I78" t="s">
+        <v>355</v>
+      </c>
+      <c r="J78" t="s">
+        <v>396</v>
+      </c>
+      <c r="M78"/>
+      <c r="P78"/>
+    </row>
+    <row r="79" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D79" s="5">
-        <v>1135</v>
+        <v>7202</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="I79" t="s">
+        <v>356</v>
+      </c>
+      <c r="J79" t="s">
+        <v>397</v>
+      </c>
+      <c r="M79"/>
+      <c r="P79"/>
+    </row>
+    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>183</v>
+        <v>274</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="D80" s="5">
-        <v>877</v>
+        <v>2570</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="I80" t="s">
+        <v>357</v>
+      </c>
+      <c r="J80" t="s">
+        <v>398</v>
+      </c>
+      <c r="M80"/>
+      <c r="P80"/>
+    </row>
+    <row r="81" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="D81" s="5">
-        <v>7202</v>
+        <v>2570</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>192</v>
+        <v>282</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="I81" t="s">
+        <v>357</v>
+      </c>
+      <c r="J81" t="s">
+        <v>398</v>
+      </c>
+      <c r="M81"/>
+      <c r="P81"/>
+    </row>
+    <row r="82" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="D82" s="5">
-        <v>2570</v>
+        <v>6641</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>279</v>
+        <v>116</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>281</v>
+        <v>118</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="I82" t="s">
+        <v>358</v>
+      </c>
+      <c r="J82" t="s">
+        <v>399</v>
+      </c>
+      <c r="M82"/>
+      <c r="P82"/>
+    </row>
+    <row r="83" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="D83" s="5">
-        <v>2570</v>
+        <v>6641</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>279</v>
+        <v>116</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>284</v>
+        <v>121</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="I83" t="s">
+        <v>359</v>
+      </c>
+      <c r="J83" t="s">
+        <v>400</v>
+      </c>
+      <c r="M83"/>
+      <c r="P83"/>
+    </row>
+    <row r="84" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>305</v>
+        <v>7</v>
       </c>
       <c r="D84" s="5">
-        <v>6641</v>
+        <v>6464</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I84" t="s">
+        <v>360</v>
+      </c>
+      <c r="J84" t="s">
+        <v>401</v>
+      </c>
+      <c r="M84"/>
+      <c r="P84"/>
+    </row>
+    <row r="85" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="D85" s="5">
-        <v>6641</v>
+        <v>6464</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="5">
-        <v>85</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="5">
-        <v>6464</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="5">
-        <v>86</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D87" s="5">
-        <v>6464</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="I85" t="s">
+        <v>408</v>
+      </c>
+      <c r="J85" t="s">
+        <v>415</v>
+      </c>
+      <c r="M85"/>
+      <c r="P85"/>
+    </row>
+    <row r="86" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="P86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+      <c r="AH86"/>
+      <c r="AI86"/>
+      <c r="AJ86"/>
+      <c r="AK86"/>
+      <c r="AL86"/>
+      <c r="AM86"/>
+      <c r="AN86"/>
+      <c r="AO86"/>
+      <c r="AP86"/>
+      <c r="AQ86"/>
+      <c r="AR86"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J87">
-    <sortCondition ref="B2:B87"/>
+  <sortState ref="A2:J86">
+    <sortCondition ref="B2:B86"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C87" r:id="rId1"/>
-    <hyperlink ref="C24" r:id="rId2"/>
+    <hyperlink ref="C85" r:id="rId1"/>
+    <hyperlink ref="C23" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
     <hyperlink ref="C9" r:id="rId4"/>
-    <hyperlink ref="C10" r:id="rId5"/>
-    <hyperlink ref="C13" r:id="rId6"/>
-    <hyperlink ref="C15" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId5"/>
+    <hyperlink ref="C14" r:id="rId6"/>
+    <hyperlink ref="C16" r:id="rId7"/>
     <hyperlink ref="C17" r:id="rId8"/>
-    <hyperlink ref="C18" r:id="rId9"/>
-    <hyperlink ref="C20" r:id="rId10"/>
-    <hyperlink ref="C33" r:id="rId11"/>
-    <hyperlink ref="C34" r:id="rId12"/>
+    <hyperlink ref="C19" r:id="rId9"/>
+    <hyperlink ref="C32" r:id="rId10"/>
+    <hyperlink ref="C34" r:id="rId11"/>
+    <hyperlink ref="C35" r:id="rId12"/>
     <hyperlink ref="C36" r:id="rId13"/>
     <hyperlink ref="C37" r:id="rId14"/>
-    <hyperlink ref="C38" r:id="rId15"/>
-    <hyperlink ref="C39" r:id="rId16"/>
-    <hyperlink ref="C43" r:id="rId17"/>
-    <hyperlink ref="C46" r:id="rId18"/>
-    <hyperlink ref="C48" r:id="rId19"/>
-    <hyperlink ref="C84" r:id="rId20"/>
+    <hyperlink ref="C41" r:id="rId15"/>
+    <hyperlink ref="C44" r:id="rId16"/>
+    <hyperlink ref="C46" r:id="rId17"/>
+    <hyperlink ref="C82" r:id="rId18"/>
+    <hyperlink ref="C53" r:id="rId19"/>
+    <hyperlink ref="C54" r:id="rId20"/>
     <hyperlink ref="C55" r:id="rId21"/>
-    <hyperlink ref="C56" r:id="rId22"/>
-    <hyperlink ref="C57" r:id="rId23"/>
-    <hyperlink ref="C60" r:id="rId24"/>
-    <hyperlink ref="C69" r:id="rId25"/>
-    <hyperlink ref="C67" r:id="rId26"/>
-    <hyperlink ref="C75" r:id="rId27"/>
-    <hyperlink ref="C76" r:id="rId28"/>
-    <hyperlink ref="C2" r:id="rId29"/>
-    <hyperlink ref="C22" r:id="rId30"/>
-    <hyperlink ref="C26" r:id="rId31"/>
-    <hyperlink ref="C27" r:id="rId32"/>
-    <hyperlink ref="C51" r:id="rId33"/>
-    <hyperlink ref="C52" r:id="rId34"/>
-    <hyperlink ref="C80" r:id="rId35"/>
+    <hyperlink ref="C58" r:id="rId22"/>
+    <hyperlink ref="C67" r:id="rId23"/>
+    <hyperlink ref="C65" r:id="rId24"/>
+    <hyperlink ref="C73" r:id="rId25"/>
+    <hyperlink ref="C74" r:id="rId26"/>
+    <hyperlink ref="C2" r:id="rId27"/>
+    <hyperlink ref="C21" r:id="rId28"/>
+    <hyperlink ref="C25" r:id="rId29"/>
+    <hyperlink ref="C26" r:id="rId30"/>
+    <hyperlink ref="C49" r:id="rId31"/>
+    <hyperlink ref="C50" r:id="rId32"/>
+    <hyperlink ref="C78" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/Java/JSQLIs/JSQLIs.xlsx
+++ b/Java/JSQLIs/JSQLIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18386\Desktop\DBench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18386\Desktop\remake-SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="418">
   <si>
     <t>ID</t>
   </si>
@@ -1309,14 +1309,6 @@
   </si>
   <si>
     <t>file_with_no_defect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cb3d28d91e7d4b81642a3940f98e48e3fb08dc16cbc6858b80bdbe9c5d6728c3:packages/WAPPushManager/src/com/android/smspush/WapPushManager.java;5cdcfb6fdc40ca11f03eaee4ce51e57eb6b9b5fbb281d76cf49ac440fa7bff0a:packages/WAPPushManager/tests/src/com/android/smspush/unitTests/WapPushTest.java</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>878312b77e297275e0f63d5e901a2057b387cd4f96cff56c2bc916e9e0fa2687:packages/WAPPushManager/src/com/android/smspush/WapPushManager.java;4e0cf80fb7cecbba8b055d67b1f143dead125045754fc7c8eb42f3dde1b32613:packages/WAPPushManager/tests/src/com/android/smspush/unitTests/WapPushTest.java</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2319,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I46" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2330,8 +2322,7 @@
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.58203125" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="10" width="55.58203125" customWidth="1"/>
+    <col min="8" max="9" width="8.6640625" customWidth="1"/>
     <col min="13" max="13" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3920,10 +3911,10 @@
         <v>40</v>
       </c>
       <c r="I46" t="s">
-        <v>418</v>
+        <v>321</v>
       </c>
       <c r="J46" t="s">
-        <v>419</v>
+        <v>364</v>
       </c>
       <c r="M46"/>
       <c r="P46"/>
